--- a/BDF/liste_merged.xlsx
+++ b/BDF/liste_merged.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>identifiant</t>
   </si>
@@ -136,10 +136,19 @@
     <t>oui</t>
   </si>
   <si>
-    <t>./photos/cadet_elise.jpg</t>
-  </si>
-  <si>
-    <t>null</t>
+    <t>https://drive.google.com/open?id=1QkB03kFiqn-qf_p4eqJZ4FOf3OMbZ6ep</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1DP78SnxjjmtmnF5Mbc-DwtMLrDZaoCo3</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1LhhvNnhzzJUyStZWH773rpzv-XmKmqZv</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1R2Bj6dF-GoPxbVqUJb1e6q-EBBXa15YJ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1_4z_9Sr2Kr5sj0pQzCLsgZuy64u7R0JK</t>
   </si>
   <si>
     <t>Frqwdfwh prl srxu soxv g'lqglfhv [César3]</t>
@@ -183,7 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +207,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -232,16 +248,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -597,14 +619,14 @@
       <c r="H2" t="s">
         <v>39</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -632,14 +654,14 @@
       <c r="H3" t="s">
         <v>39</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -667,14 +689,14 @@
       <c r="H4" t="s">
         <v>39</v>
       </c>
-      <c r="I4" t="s">
-        <v>41</v>
+      <c r="I4" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -702,14 +724,14 @@
       <c r="H5" t="s">
         <v>39</v>
       </c>
-      <c r="I5" t="s">
-        <v>41</v>
+      <c r="I5" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -737,17 +759,24 @@
       <c r="H6" t="s">
         <v>39</v>
       </c>
-      <c r="I6" t="s">
-        <v>41</v>
+      <c r="I6" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
+    <hyperlink ref="I6" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BDF/liste_merged.xlsx
+++ b/BDF/liste_merged.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="527">
   <si>
     <t>identifiant</t>
   </si>
   <si>
-    <t>nom_1A</t>
+    <t>Nom 1A</t>
   </si>
   <si>
     <t>prenom_1A</t>
@@ -31,6 +31,12 @@
     <t>prenom_2A</t>
   </si>
   <si>
+    <t>1A a répondu s'il était disponible ou pas</t>
+  </si>
+  <si>
+    <t>2A a donné sa photo et sa phrase</t>
+  </si>
+  <si>
     <t>famille</t>
   </si>
   <si>
@@ -46,146 +52,1745 @@
     <t>contact</t>
   </si>
   <si>
+    <t>abaietto</t>
+  </si>
+  <si>
+    <t>tmorineau</t>
+  </si>
+  <si>
+    <t>mlepri</t>
+  </si>
+  <si>
+    <t>abascop</t>
+  </si>
+  <si>
+    <t>emarqueton</t>
+  </si>
+  <si>
+    <t>vbossis</t>
+  </si>
+  <si>
+    <t>hblanc</t>
+  </si>
+  <si>
+    <t>cweber</t>
+  </si>
+  <si>
+    <t>pgribal</t>
+  </si>
+  <si>
+    <t>rthebaut</t>
+  </si>
+  <si>
     <t>ebalatti</t>
   </si>
   <si>
+    <t>asaracco</t>
+  </si>
+  <si>
+    <t>bmetraud</t>
+  </si>
+  <si>
+    <t>arondeau</t>
+  </si>
+  <si>
+    <t>bhate</t>
+  </si>
+  <si>
+    <t>wsofiane</t>
+  </si>
+  <si>
+    <t>abourdin</t>
+  </si>
+  <si>
+    <t>lcayment</t>
+  </si>
+  <si>
+    <t>lphilippe</t>
+  </si>
+  <si>
+    <t>mrouffelaers</t>
+  </si>
+  <si>
+    <t>sdermouh</t>
+  </si>
+  <si>
+    <t>jlegoff</t>
+  </si>
+  <si>
+    <t>ynguyenvanho</t>
+  </si>
+  <si>
+    <t>fdomecq</t>
+  </si>
+  <si>
+    <t>msaintorens</t>
+  </si>
+  <si>
+    <t>mfrançois</t>
+  </si>
+  <si>
+    <t>asernahernandez</t>
+  </si>
+  <si>
+    <t>hdecroux</t>
+  </si>
+  <si>
+    <t>tjourdain</t>
+  </si>
+  <si>
+    <t>mgendron</t>
+  </si>
+  <si>
+    <t>jbellini</t>
+  </si>
+  <si>
+    <t>ldelabrière</t>
+  </si>
+  <si>
+    <t>rlecarour</t>
+  </si>
+  <si>
+    <t>eguilbault</t>
+  </si>
+  <si>
+    <t>zminondo</t>
+  </si>
+  <si>
+    <t>ekonovalova</t>
+  </si>
+  <si>
+    <t>rbedin</t>
+  </si>
+  <si>
+    <t>tmallard</t>
+  </si>
+  <si>
+    <t>ljacob</t>
+  </si>
+  <si>
+    <t>tlesavand</t>
+  </si>
+  <si>
+    <t>cleger</t>
+  </si>
+  <si>
+    <t>egoulier</t>
+  </si>
+  <si>
+    <t>lrocuet</t>
+  </si>
+  <si>
+    <t>mbruzat</t>
+  </si>
+  <si>
+    <t>dlacourte</t>
+  </si>
+  <si>
+    <t>ypetitpas</t>
+  </si>
+  <si>
+    <t>syilmaz</t>
+  </si>
+  <si>
+    <t>jboesch</t>
+  </si>
+  <si>
+    <t>vlucquiault</t>
+  </si>
+  <si>
     <t>blaran</t>
   </si>
   <si>
-    <t>tlesavand</t>
-  </si>
-  <si>
-    <t>asernahernandez</t>
-  </si>
-  <si>
-    <t>wsofiane</t>
+    <t>takemakou</t>
+  </si>
+  <si>
+    <t>lbordenave</t>
+  </si>
+  <si>
+    <t>ngautier</t>
+  </si>
+  <si>
+    <t>scouderc</t>
+  </si>
+  <si>
+    <t>asanad</t>
+  </si>
+  <si>
+    <t>abarthas</t>
+  </si>
+  <si>
+    <t>cmarty</t>
+  </si>
+  <si>
+    <t>aorange</t>
+  </si>
+  <si>
+    <t>vbrehault</t>
+  </si>
+  <si>
+    <t>mbrunat</t>
+  </si>
+  <si>
+    <t>hcontardo</t>
+  </si>
+  <si>
+    <t>sjuan</t>
+  </si>
+  <si>
+    <t>mbrivet</t>
+  </si>
+  <si>
+    <t>mmaginet</t>
+  </si>
+  <si>
+    <t>notabachian</t>
+  </si>
+  <si>
+    <t>lbardisbanian</t>
+  </si>
+  <si>
+    <t>mpimpaud</t>
+  </si>
+  <si>
+    <t>bruelle</t>
+  </si>
+  <si>
+    <t>ctriat</t>
+  </si>
+  <si>
+    <t>aneyracontreras</t>
+  </si>
+  <si>
+    <t>clucas</t>
+  </si>
+  <si>
+    <t>BAIETTO</t>
+  </si>
+  <si>
+    <t>MORINEAU</t>
+  </si>
+  <si>
+    <t>LEPRI</t>
+  </si>
+  <si>
+    <t>BASCOP</t>
+  </si>
+  <si>
+    <t>MARQUETON</t>
+  </si>
+  <si>
+    <t>BOSSIS</t>
+  </si>
+  <si>
+    <t>BLANC</t>
+  </si>
+  <si>
+    <t>WEBER</t>
+  </si>
+  <si>
+    <t>GRIBAL</t>
+  </si>
+  <si>
+    <t>THEBAUT</t>
   </si>
   <si>
     <t>BALATTI</t>
   </si>
   <si>
+    <t>SARACCO</t>
+  </si>
+  <si>
+    <t>METRAUD</t>
+  </si>
+  <si>
+    <t>RONDEAU</t>
+  </si>
+  <si>
+    <t>HATE</t>
+  </si>
+  <si>
+    <t>SOFIANE</t>
+  </si>
+  <si>
+    <t>BOURDIN</t>
+  </si>
+  <si>
+    <t>CAYMENT</t>
+  </si>
+  <si>
+    <t>PHILIPPE</t>
+  </si>
+  <si>
+    <t>ROUFFELAERS</t>
+  </si>
+  <si>
+    <t>DERMOUH</t>
+  </si>
+  <si>
+    <t>LE GOFF</t>
+  </si>
+  <si>
+    <t>NGUYEN VAN HO</t>
+  </si>
+  <si>
+    <t>DOMECQ</t>
+  </si>
+  <si>
+    <t>SAINTORENS</t>
+  </si>
+  <si>
+    <t>FRANÇOIS</t>
+  </si>
+  <si>
+    <t>SERNA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>DECROUX</t>
+  </si>
+  <si>
+    <t>JOURDAIN</t>
+  </si>
+  <si>
+    <t>GENDRON</t>
+  </si>
+  <si>
+    <t>BELLINI</t>
+  </si>
+  <si>
+    <t>DELABRIÈRE</t>
+  </si>
+  <si>
+    <t>LE CAROUR</t>
+  </si>
+  <si>
+    <t>GUILBAULT</t>
+  </si>
+  <si>
+    <t>MINONDO</t>
+  </si>
+  <si>
+    <t>KONOVALOVA</t>
+  </si>
+  <si>
+    <t>BEDIN</t>
+  </si>
+  <si>
+    <t>MALLARD</t>
+  </si>
+  <si>
+    <t>JACOB</t>
+  </si>
+  <si>
+    <t>LESAVAND</t>
+  </si>
+  <si>
+    <t>LEGER</t>
+  </si>
+  <si>
+    <t>GOULIER</t>
+  </si>
+  <si>
+    <t>ROCUET</t>
+  </si>
+  <si>
+    <t>BRUZAT</t>
+  </si>
+  <si>
+    <t>LACOURTE</t>
+  </si>
+  <si>
+    <t>PETITPAS</t>
+  </si>
+  <si>
+    <t>YILMAZ</t>
+  </si>
+  <si>
+    <t>BOESCH</t>
+  </si>
+  <si>
+    <t>LUCQUIAULT</t>
+  </si>
+  <si>
     <t>LARAN</t>
   </si>
   <si>
-    <t>LESAVAND</t>
-  </si>
-  <si>
-    <t>SERNA HERNANDEZ</t>
-  </si>
-  <si>
-    <t>SOFIANE</t>
+    <t>AKEMAKOU</t>
+  </si>
+  <si>
+    <t>BORDENAVE</t>
+  </si>
+  <si>
+    <t>GAUTIER</t>
+  </si>
+  <si>
+    <t>COUDERC</t>
+  </si>
+  <si>
+    <t>SANAD</t>
+  </si>
+  <si>
+    <t>BARTHAS</t>
+  </si>
+  <si>
+    <t>MARTY</t>
+  </si>
+  <si>
+    <t>ORANGE</t>
+  </si>
+  <si>
+    <t>BREHAULT</t>
+  </si>
+  <si>
+    <t>BRUNAT</t>
+  </si>
+  <si>
+    <t>CONTARDO</t>
+  </si>
+  <si>
+    <t>JUAN</t>
+  </si>
+  <si>
+    <t>BRIVET</t>
+  </si>
+  <si>
+    <t>MAGINET</t>
+  </si>
+  <si>
+    <t>OTA BACHIAN</t>
+  </si>
+  <si>
+    <t>BARDISBANIAN</t>
+  </si>
+  <si>
+    <t>PIMPAUD</t>
+  </si>
+  <si>
+    <t>RUELLE</t>
+  </si>
+  <si>
+    <t>TRIAT</t>
+  </si>
+  <si>
+    <t>NEYRA CONTRERAS</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>Aldwin</t>
+  </si>
+  <si>
+    <t>Théo</t>
+  </si>
+  <si>
+    <t>Mathilde</t>
+  </si>
+  <si>
+    <t>Arnaud</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>Cleo</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Romy</t>
   </si>
   <si>
     <t>Enzo</t>
   </si>
   <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Bettina</t>
+  </si>
+  <si>
+    <t>Angeline</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Wissam</t>
+  </si>
+  <si>
+    <t>Adrien</t>
+  </si>
+  <si>
+    <t>Lucie</t>
+  </si>
+  <si>
+    <t>Léo</t>
+  </si>
+  <si>
+    <t>Marine</t>
+  </si>
+  <si>
+    <t>Samir</t>
+  </si>
+  <si>
+    <t>Jean-Brice</t>
+  </si>
+  <si>
+    <t>Yoan</t>
+  </si>
+  <si>
+    <t>François</t>
+  </si>
+  <si>
+    <t>Maëlle</t>
+  </si>
+  <si>
+    <t>Alexandra</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Mathis</t>
+  </si>
+  <si>
+    <t>Julie</t>
+  </si>
+  <si>
+    <t>Léonie</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Zoe</t>
+  </si>
+  <si>
+    <t>Elizaveta</t>
+  </si>
+  <si>
+    <t>Romain</t>
+  </si>
+  <si>
+    <t>Tudual</t>
+  </si>
+  <si>
+    <t>Loïc</t>
+  </si>
+  <si>
+    <t>Tristan</t>
+  </si>
+  <si>
+    <t>Corentin</t>
+  </si>
+  <si>
+    <t>Emilie</t>
+  </si>
+  <si>
+    <t>Lottie</t>
+  </si>
+  <si>
+    <t>Mélissa</t>
+  </si>
+  <si>
+    <t>Diane-Devi</t>
+  </si>
+  <si>
+    <t>Yannis</t>
+  </si>
+  <si>
+    <t>Saban</t>
+  </si>
+  <si>
+    <t>Jade</t>
+  </si>
+  <si>
+    <t>Valentine</t>
+  </si>
+  <si>
     <t>Baptiste</t>
   </si>
   <si>
-    <t>Tristan</t>
-  </si>
-  <si>
-    <t>Alexandra</t>
-  </si>
-  <si>
-    <t>Wissam</t>
+    <t>Thoutmès</t>
+  </si>
+  <si>
+    <t>Leonore</t>
+  </si>
+  <si>
+    <t>Noé</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Akram</t>
+  </si>
+  <si>
+    <t>Antoine</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Maiwen</t>
+  </si>
+  <si>
+    <t>Nanor</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Maxime</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t>Camille</t>
+  </si>
+  <si>
+    <t>ARRACHEQUESNE</t>
+  </si>
+  <si>
+    <t>ARTHUIS</t>
+  </si>
+  <si>
+    <t>BANNAY</t>
+  </si>
+  <si>
+    <t>BEAUREPAIRE</t>
+  </si>
+  <si>
+    <t>BINET</t>
+  </si>
+  <si>
+    <t>BONNEFON</t>
+  </si>
+  <si>
+    <t>BRIAND</t>
+  </si>
+  <si>
+    <t>BRISSAUD</t>
+  </si>
+  <si>
+    <t>BULTEAU</t>
   </si>
   <si>
     <t>CADET</t>
   </si>
   <si>
+    <t>CADO</t>
+  </si>
+  <si>
+    <t>CARLIEZ</t>
+  </si>
+  <si>
+    <t>CHAUVIER</t>
+  </si>
+  <si>
+    <t>COGNET</t>
+  </si>
+  <si>
+    <t>CONSTANS</t>
+  </si>
+  <si>
+    <t>COUFFRANT</t>
+  </si>
+  <si>
+    <t>DE FOUCAUD</t>
+  </si>
+  <si>
+    <t>DE LIGNY</t>
+  </si>
+  <si>
+    <t>DESCLAUX</t>
+  </si>
+  <si>
+    <t>DEVREESE</t>
+  </si>
+  <si>
+    <t>DHELLIN</t>
+  </si>
+  <si>
+    <t>DIZET</t>
+  </si>
+  <si>
+    <t>DUBOZ</t>
+  </si>
+  <si>
+    <t>DUPETIT</t>
+  </si>
+  <si>
+    <t>DURAND</t>
+  </si>
+  <si>
+    <t>ESQUIROL</t>
+  </si>
+  <si>
+    <t>FAURE</t>
+  </si>
+  <si>
+    <t>FRICAUD</t>
+  </si>
+  <si>
+    <t>GADEAU</t>
+  </si>
+  <si>
+    <t>GARLATTI</t>
+  </si>
+  <si>
+    <t>GASS</t>
+  </si>
+  <si>
+    <t>GRONDIN</t>
+  </si>
+  <si>
+    <t>GUERIN</t>
+  </si>
+  <si>
+    <t>GUILLET</t>
+  </si>
+  <si>
+    <t>HOLSTEIN</t>
+  </si>
+  <si>
+    <t>JUANEDA</t>
+  </si>
+  <si>
+    <t>LAUR</t>
+  </si>
+  <si>
+    <t>LAVENSEAU</t>
+  </si>
+  <si>
+    <t>LE MOIGNE</t>
+  </si>
+  <si>
+    <t>LETOURNEL</t>
+  </si>
+  <si>
+    <t>LORGUE</t>
+  </si>
+  <si>
+    <t>LOTHAIRE</t>
+  </si>
+  <si>
+    <t>MANEUX</t>
+  </si>
+  <si>
+    <t>MEDINA</t>
+  </si>
+  <si>
     <t>MORASSIN</t>
   </si>
   <si>
-    <t>LAUR</t>
-  </si>
-  <si>
-    <t>ESQUIROL</t>
-  </si>
-  <si>
-    <t>CONSTANS</t>
+    <t>MUSACCHIO</t>
+  </si>
+  <si>
+    <t>NAVARRO</t>
+  </si>
+  <si>
+    <t>NDIAYE</t>
+  </si>
+  <si>
+    <t>PARIZE</t>
+  </si>
+  <si>
+    <t>PASCOTTINI</t>
+  </si>
+  <si>
+    <t>PERRIER</t>
+  </si>
+  <si>
+    <t>PETIT</t>
+  </si>
+  <si>
+    <t>PIERRE</t>
+  </si>
+  <si>
+    <t>PRADAL</t>
+  </si>
+  <si>
+    <t>SAUNDERS</t>
+  </si>
+  <si>
+    <t>SCOLAN</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>THOMASSON</t>
+  </si>
+  <si>
+    <t>TOMAS</t>
+  </si>
+  <si>
+    <t>TOUZET</t>
+  </si>
+  <si>
+    <t>VALENTIN</t>
+  </si>
+  <si>
+    <t>VALLCANERAS</t>
+  </si>
+  <si>
+    <t>VALLÉE</t>
+  </si>
+  <si>
+    <t>VINCENT</t>
+  </si>
+  <si>
+    <t>ZULIANI</t>
+  </si>
+  <si>
+    <t>Albane</t>
+  </si>
+  <si>
+    <t>Margot</t>
+  </si>
+  <si>
+    <t>Coline</t>
+  </si>
+  <si>
+    <t>Julien</t>
+  </si>
+  <si>
+    <t>Cloé</t>
+  </si>
+  <si>
+    <t>Justine</t>
   </si>
   <si>
     <t>Elise</t>
   </si>
   <si>
+    <t>Erwan</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Jean-Baptiste</t>
+  </si>
+  <si>
+    <t>Théa</t>
+  </si>
+  <si>
+    <t>Adriana</t>
+  </si>
+  <si>
+    <t>Tess</t>
+  </si>
+  <si>
+    <t>Tiphaine</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Matthias</t>
+  </si>
+  <si>
+    <t>Allan</t>
+  </si>
+  <si>
+    <t>Caroline</t>
+  </si>
+  <si>
+    <t>Juliette</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Aurelie</t>
+  </si>
+  <si>
+    <t>Léa</t>
+  </si>
+  <si>
+    <t>Elisa</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>Guilhem</t>
+  </si>
+  <si>
+    <t>Marie</t>
+  </si>
+  <si>
+    <t>Fannie</t>
+  </si>
+  <si>
+    <t>Maël</t>
+  </si>
+  <si>
+    <t>Tangi</t>
+  </si>
+  <si>
+    <t>Loic</t>
+  </si>
+  <si>
     <t>Thibault</t>
   </si>
   <si>
-    <t>Simon</t>
-  </si>
-  <si>
-    <t>Juliette</t>
-  </si>
-  <si>
-    <t>Théa</t>
+    <t>Pierre</t>
+  </si>
+  <si>
+    <t>Mariam</t>
+  </si>
+  <si>
+    <t>Canelle</t>
+  </si>
+  <si>
+    <t>Alban</t>
+  </si>
+  <si>
+    <t>Fanny</t>
+  </si>
+  <si>
+    <t>Judith</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Enora</t>
+  </si>
+  <si>
+    <t>Maika</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>Amandine</t>
+  </si>
+  <si>
+    <t>Amaury</t>
+  </si>
+  <si>
+    <t>Matthéo</t>
   </si>
   <si>
     <t>Orange</t>
   </si>
   <si>
+    <t>Vert</t>
+  </si>
+  <si>
+    <t>Bleu</t>
+  </si>
+  <si>
+    <t>Jaune</t>
+  </si>
+  <si>
     <t>Rouge</t>
   </si>
   <si>
-    <t>Vert</t>
-  </si>
-  <si>
-    <t>Jaune</t>
-  </si>
-  <si>
     <t>oui</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1QkB03kFiqn-qf_p4eqJZ4FOf3OMbZ6ep</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1DP78SnxjjmtmnF5Mbc-DwtMLrDZaoCo3</t>
+    <t>non</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1iO2BIS3KJMIS_3K0meujcBh4dJv0-lnO</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1IWayheTpXQQkjYJ6UHQaYx0PoDvvOuFC</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1YmBszem1iDHkEOb_i5NPFlerTuKZf6Nz</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1JHg7BL4pbRzn4bdkYDuoCBeg8Bzl_T_P</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1u1eAALIl6hJD8KvUg3KgSY_Vk5wrUWIT</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1bToAEEVqmCqRk7XE8bEhZGxcIWGgC6vE</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1GG6koj6j2H-t2Y4tomG1_IhwxAuSro8Z</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1jw7K4tdYJCIYbTmuAblDEWBGxQKD_Azn</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1A9_frfqpDfttoZQa4jo9oWV2hr2Vy6_Q</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Q4k7Kj7eYS5vz7F46iJyTvkTm8xyWB2c/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1MteDm_CxZiYBj15zjC_lrVg_68cK24me</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1gdkyLvBFCWhtQBfEEcNHkuvK8H8chO3a</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1x0Kc-8LCOijt_dtrv8DsKFTeLjZ_iw-2</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1OB6qR2oYtF64D5Go2wbT-nyoWwSeEUcl</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1_4z_9Sr2Kr5sj0pQzCLsgZuy64u7R0JK</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1JHrreRG2Yem-hBko0N3nxfgQkYsbRL7Q</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=142bD31BW_Sq3TSJYR2XZ3mOnBblrFDgT</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1HeViqNjqWsV3s2adsP8KAsjAO8yZq0Sb</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1J0erYySarwRSb767kNE2ObXbb8RJMueo</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1PAS3Kr07DfJ0n9YdBu6i8B9ZR3Nnjwfj</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1CtuAhSHssMeS6FlM3ffDZ8g-83Ho-Ih0</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=19531TKbvIu0Q6Kt-xyJvAdFTXfm3oDYT</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1bN0Dx13i70ZmeBJzBMnjPPYaYuWVnwuz</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ZosumyFXtyv8K-GVUrxMJYjkz8Fp2i52</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1BtKhBVKFhefWgz3QHqgYIQiUoVIhL4As</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1xRBCxIsgCG_i6QpjJbA3zCJETWWna63K</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1gQbf3MKp_w6zueuuqmL6zKaXZou303-5</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1uRXJKGD1clVg60b41UO3G36r9W58Fsf4</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1DrGkAmrmaUFD8co9d5gzVraXF7BKBMEX</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1jRi1N8NgEOwUPuGN8EWGR1IrJ7jlBZDa</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Q-L_u_HdGIORq8QE7EudifKogga3lr7l</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ewS4f0C5dBBj6MZiiquaRWT4kfemvs1B</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=16hW90LgzYyas2jQ18m2reCNs64DkybQK</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1qVJP0wkH1cpkwEAt9-iQnlnlNjR40oj5</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1o5uW_-QbF-w0HnLuM2Bn5X33bsCG0A8j</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1pPAItfzcz5M2qQby0CCa_uHPo_TXAulv</t>
   </si>
   <si>
     <t>https://drive.google.com/open?id=1LhhvNnhzzJUyStZWH773rpzv-XmKmqZv</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1R2Bj6dF-GoPxbVqUJb1e6q-EBBXa15YJ</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1_4z_9Sr2Kr5sj0pQzCLsgZuy64u7R0JK</t>
-  </si>
-  <si>
-    <t>Frqwdfwh prl srxu soxv g'lqglfhv [César3]</t>
-  </si>
-  <si>
-    <t>Si tu me trouves pas c'est que t'es un gros tocard</t>
-  </si>
-  <si>
-    <t>Si tu veux rencontrer ton parrain/ ta marraine envoie DJADJA au 0641765106</t>
+    <t>https://drive.google.com/open?id=1qoDfUc5nMc1JFP_Grlj7OXOL0htHeZGl</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1-wj-KBDO84JadvXXXWl6FD1AWXhwvbnj</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1jl4PPMcyznZkGqHu_gVjj40CAG6Y7wUh</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1lwJzQZgVnRrCZJQ_M6QiGNv5naz6TRd0</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1LnRwzsUslpcMV8ZOYT-qWliujBdJtQya</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1oQiwbu0eu7oS2ocNWBQiXb5EHNgLSg44</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1uhyw35nANvE3wJKDyWYsqAd_dzqaaBns</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1m7tI8UxmEa9rmMRbUUihxJ-KqzNvZP9d</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1KgTdqp4Fu8hEKvaHsH9pbhXlQ8v2S3FW</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=11JRl9VG0Qg_1skloySTLCPYPiEBb-b5r</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1tVaJTE743bnvqpR8Ec6-TKDj230RYtdg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=18FrG57eiahEJPaNTBPtgZaQdNGBrD9sb</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1111wFtegeK7ZJ4Jb3XpxLD90l8uE2FG-</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1CaY_Rv1T_4p0HIPGUSnslHQn1BgfVDJP</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1mX4TqbO93DohZGfxAKlVgf4VKvMNrYJm</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1zoFwYrxrG4m78s8vdCne37_yWFqllIhO</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1iS144sj0AzDI2r2g8-_J5RSckl-EK6xu</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1XJeav14a9jV_Ou-tFf8JxKZsbAhX32Pz</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1L7IMi7t26-l_XfwwBNBEUhJ8SHntFC7_</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1q0Pw22xQNPlkxR_p27qzEeccvnpDfDS6</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ll8DbKq0k176JeRfbsbNnOtoItTyFTyh</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1D3wKFgT3eWIyBr8Yr_NxjRLsMvd59vr3</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1AyeltRF7E_AU7Hq5b3cKiBBASDw4lHD2</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1QE5O4aiimXd_tv8m0JXjjuZPwXOmyX5z</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1moUpMb9jMWnGohPRIxXxYWBA44gfCwLO</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1sumJHmlITpQ574CCjrJ2AAEc6CNte2f_</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=12Ck6Rd6W_iVh7oLNJzLwrRi35Tox3s8p</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1IEm1KDjKa82Vu_6wKAWiA5PDut2fFvxB</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1s9gEVpDM17uZ-igMntAfmzTwb5CPy-zO</t>
+  </si>
+  <si>
+    <t>Holà fillot ! J'espère que tu vas bien ! Bon vu l'âge que j'ai sur la photo, pour me reconnaître je te souhaite 'bon chance'.
+Enfin bref, pour le lieu de rendez-vous : on a réservé une partie d'un bar histoire de faire connaissance avec tous les nouveaux fillots/fillotes.
+"Viens swinguer avec moi en mer à Roustaing" Je valide pas cette phrase, mais c'est ce que qqn a envoyé à son fillot et ca résume bien l'endroit du rdv ^^ On s'y retrouve à 19h/20h jeudi soir ;)
+Le bar est réservé à partir de 19h mais t'auras qu'à me mp si jamais tu arrives plus tard.
+Je parle dans le futur mais quand tu vas voir ce message, le rdv sera dans quelques heures. Je te dis à tout du coup ^^</t>
+  </si>
+  <si>
+    <t>« Un vert, avec ses pairs, jamais ne se perd,
+A la victoire 19h, retrouve tes 6 congénères, 
+Résoudre l'énigme tu devras faire,
+On vous attend pour un ou plusieurs verres »
+https://testsiteensc.000webhostapp.com/?id=5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Coucou !
+Rendez vous à 19h à l'école, devant le local à vélo (c'est avant d'entrer dans le hall principal)
+J'espère que t'es prête à boire et à me rencontrer, parce que moi ouiii ! 
+Les membres du BDF ont décidé que tu serais ma fillote, et leur sentence est irrévocable.  </t>
+  </si>
+  <si>
+    <t>« Un vert, avec ses pairs, jamais ne se perd,
+A la victoire 19h, retrouve tes 6 congénères, 
+Résoudre l'énigme tu devras faire 
+On vous attend pour un ou plusieurs verres »
+Enigme : https://testsiteensc.000webhostapp.com/?id=4</t>
+  </si>
+  <si>
+    <t>À moins de 2 minutes à pieds d'un établissement de réputation nationale (je parle de l'école), encadré par deux établissements gastronomique (entre autres), un petit jardin avec vue sur l'ENSC introduira une rencontre familiale ce jeudi 15 octobre a 19h.
+PS : Si tu es allergique aux chats, ou si tu ne les aimes pas, préviens moi stp !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wesh! 
+T'as cru que ne trouver ça aller être simple ? 🙃 On vous donne rendez vous à 19h au local vélo de l'école avec nos fillots/fillottes.
+Quand vous êtes plusieurs envoie moi un sms, on vous donne les prochains indices ! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spoiler alert c'est moi </t>
+  </si>
+  <si>
+    <t>Yo fillotte !
+Rendez-vous à 19h00 sous le local à vélo de l'école. Envoie-moi un sms quand vous être plusieurs à vous être retrouvés.
+A tout à l'heure. Bisous</t>
+  </si>
+  <si>
+    <t>RDV vers 18H30  : 
+"Ça fait zumba café… Café au Carnaval !" 
+Bienvenue chez les jaunes 💛</t>
+  </si>
+  <si>
+    <t>J'espère que je m'étais pas trop cramée, bienvenue dans la famille fillot, et apprécie ton parrain 🧡</t>
+  </si>
+  <si>
+    <t>Salut Champion ! J'ai vu que t'étais pas dispo ce soir, c'est pas bien du tout, tu seras puni. Pour la peine tu vas venir taper grosse soirée chez moi vendredi soir !!! Confirme moi ta présence par SMS en complétant cette punch :
+Ici, c'est racisme et vente d'armes, des clodos à chaque station
+Tu l'appelles Mère Patrie [...]
+Dors bien ce soir et vient en forme demain.
+Tchuuuuuss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coucou ma fillote ! (le correcteur me propose filoute, est-ce un signe ?)
+Nous n'avons pas encore eu l'occasion de discuter de vive voix mais je pense avoir compris au vu de tes réponses et des témoignages de ceux qui te connaissent qu'entre nous cela devrait bien matcher 💞
+Ce soir tu vas découvrir qui se cache derrière ces lignes et voir je l'espère le début d'une super relation 🙈
+Mais surtout pas de pression,  ne te prends pas la tête ! Viens habillée tranquillement, sois à l'aise, sois toi et ne prévois de quoi manger, tout est organisé 😉
+Je t'emmène dans un endroit qui compte beaucoup pour moi puisqu'il s'agit du lieu où mon histoire bordelaise a commencé... Pour avoir plus de détails, il faudra demander 🤫
+Petite info supplémentaire : ce soir sera un moment de détente et de bonne ambiance que nous serons plusieurs à partager (tu en sauras plus à la fin de ce message) 😉
+Il ne me reste plus grand chose à dire :
+Bienvenue dans ma famille et bienvenue chez les jaunes 💛
+Voici l'énigme pour me trouver :
+Chez les jaunes, on pense qu'ensemble on est plus fort. Peut-être qu'une alliance te mènera à ta marraine / ton parrain. Soleil sera ton nom de code, cherche ton/ta partenaire céleste ☀
+Mon premier est la croix dont les romains marquent le mois d'octobre
+...
+Mon troisième est, chez les britanniques, accueilli par le palais de Westminster 
+...
+En cas de difficultés, n'hésite pas à appeler
+A tout à l'heure 💛
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rejoignez vous à l’ecole à 19h, au local à vélo </t>
+  </si>
+  <si>
+    <t>RDV : 
+"Ça fait zumba café… Café au Carnaval !" 
+Bienvenue chez les jaunes 💛</t>
+  </si>
+  <si>
+    <t>RDV : 
+(68 + 300 / 6)*1/2 - (11-2) + 100 * 3 - 20000000/100000 - 59*2 = 32
+De qui sont ses fables : 
+Le Corbeau, la Gazelle, la Tortue et le Rat
+Le Cerf et la Vigne</t>
+  </si>
+  <si>
+    <t>Salut ! J'ai l'honneur d'être ta marraine 💚  retrouve moi à 19h30 à l'arrêt de tram de la Victoire pour une petite soirée chill dans Bordeaux, si t'as faim on ira manger (le seul avantage de la non-soiree parrainage cest que ce ne sera pas des sandwich de l'ecole) et comme je ss la reine des surprises j'ai choisi un truc super cool après jai trooooooop hate :)
+Trop hâte de te rencontrer, si jamais contacte moi sur mon portable (que le BDF donne normalement sinon miskin)</t>
+  </si>
+  <si>
+    <t>Rendez-vous Hotel de Ville, place Pey Berland. Tente de retrouver Baptiste Laran et de trouver un QR code &lt;3</t>
+  </si>
+  <si>
+    <t>Tu me retrouveras facilement grâce à mon grand nez 👃 😜 
+Sinon soit à 19h au 44.831132,-0.572754 et je te conseille d'avoir de la batterie à ce moment là et une connexion internet, des infos te seront données en temps voulu :)</t>
+  </si>
+  <si>
+    <t>RDV : 
+"Ça fait zumba café… Café au Carnaval !" 
+Bienvenue chez les jaunes 💛</t>
+  </si>
+  <si>
+    <t>À moins de 2 minutes à pieds d'un établissement de réputation nationale (ndlr: ta super école), encadré par deux établissements gastronomique, un petit jardin avec vue sur l'ENSC introduira une rencontre familiale ce jeudi 15 octobre à 19h. PS: Si t'es allergique aux chats ou que tu peux pas les sentir ce serait pas mal de nous prévenir avant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trouve les deux autres. Complétez l’énigme. Trouvez vos parrains.
+« …,
+Mon second est une pizza tomate, jambon, champignons,
+…,
+Mon tout est votre soirée, votre intronisation, votre arrivée parmi nous ».
+Une fois l'énigme résolue, remplacer « xxxxxxxxxx » avec le mot obtenu :
+http://xxxxxxxxxx-ensc.ddns.net/
+</t>
+  </si>
+  <si>
+    <t>RDV vers 18H30:
+"Ça fait zumba café... Café au Carnaval !"
+Bienvenue chez les jaunes 💛</t>
+  </si>
+  <si>
+    <t>Un incide : tous les chemins mènent à l'alcool</t>
+  </si>
+  <si>
+    <t>Bienvenue dans la famille rouge ! 
+La famille du cœur ❤️ (pour se soutenir) et du sang 🩸(pour écraser les autres familles, en compétition bien sûr ahah).
+On m'a dit que tu ne pouvais pas venir jeudi soir (😢) mais au cas où tu pourrais te libérer (même si c'est plus tard dans la soirée 😁) je te laisse mon numéro de téléphone, tu as juste à m'envoyer des petits messages et je viendrais te chercher n'importe où🦸🏼‍♀️! (Enfin presque n'importe où)
+Dans tous les cas ce serait bien qu'on se fasse un petit truc entre marraine et filleule, je te présenterai ta lignée aussi avec ta grande marraine et ton grand parrain (oui oui j'ai été chanceuse, j'ai eu deux 2A pour m'accompagner l'année dernière 🥰)
+Allez bisous bisous (de loin bien entendu) 😘</t>
+  </si>
+  <si>
+    <t>Bienvenue à toi fillote (yes la famille rouge) ! J'espère que t'es ready pour cette soirée bien sympa qui commence dès maintenant ❤️
+Rendez-vous à l'endroit suivant à 19 h : 44.831132,-0.572754. Et surtout, pense à checker tes mails 😉
+On se voit vite !</t>
   </si>
   <si>
     <t xml:space="preserve">TU DOIS ÊTRE A LA VICTOIRE A 19H AU PLUS TARD
-3 autres personnes ont reçu un message similaire
+4 autres personnes ont reçu un message similaire
 trouve les pour décrypter ceci : 
 Place de la victoire tu analyseras
-Le prochain message que la _ _ _ _ _ _ te délivrera
-Premier indice : R
+Le prochain message que la T _ _ _ _ _ te délivrera
+Premier indice : R 
 Si vous êtes pas foutus de passer à la prochaine étape envoyez ALED au 06 82 34 13 00
 </t>
   </si>
   <si>
-    <t>a modif</t>
+    <t>Bonjour mon fillot, pour me trouver, je t'invite à introspecter et chercher en toi ta part de moi. Bénébou</t>
+  </si>
+  <si>
+    <t>Salut à toi jeune cogniticien. Rendez-vous jeudi soir à 18h30 au Charles Dickens (https://www.charlesdickenspub.fr/) pour rencontrer ta familia. Ps : la photo a vraiment 10 ans et si j'y ai déjà l'air vieux c'est que je suis très vieux.</t>
+  </si>
+  <si>
+    <t>Coucou très chère fillote ! 
+C'est un plaisir de pouvoir enfin t'adresser quelques mots. J'ai si hâte de te rencontrer.
+Léger (trop léger ?) indice sur mon identité : nous nous sommes déjà rencontrées dans un endroit plein de lumières...
+Deux autres 1A ont pour point de rendez-vous le même que toi. Je t'encourage à les retrouver le plus tôt possible à l'arrêt de bus Arts et Métiers, puis prenez ensemble le bus 8 direction Hôpital Pellegrin, descendez après 3 arrêts et rejoins-moi dans un QG de la famille orange. Ne t'inquiète pas, je t'y attends avec d'autres membres, tous très bienveillants, de ta nouvelle famille ORANGE !
+Dès que tu as lu ce message et enfilé tes meilleures chaussures, envoie LUNULE au 06.33.32.28.94 pour obtenir plus de détails sur l'adresse exacte. Envoie aussi LUNULE sur ta conversation messenger de promo et sois à l'affût des deux autres personnes qui enverront le même message. Établis le contact avec eux pour que vous puissiez vous rejoindre au point de rdv évoqué ci-dessus.
+La chasse est ouverte ;)</t>
+  </si>
+  <si>
+    <t>RDV à 18h30 : 
+"Ça fait zumba café… Café au Carnaval !" 
+Bienvenue chez les jaunes 💛
+PS : Trop trop hâte de te voir 🥰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salut Salut, j'ai vu que tu n'étais pas dispo jeudi soir, mais au cas où tu puisse te libérer on sera au frog &amp; rosbif à partir de 19h avec ton grand-parrain et quelques amis de l'école (on sera moins de 10, et ils sont marrants et sympas, c'est promis ^^). En attendant, tu peux m'envoyer un sms sur le numéro que je vais donner dans la prochaine question pour me dire comment te contacter (je ne t'ai pas trouvée sur Messenger, honte à moi) comme ça on pourra faire un peu connaissance :) . En espérant te voir jeudi ou alors te croiser dans l'école prochainement. 
+Des bisous ;) </t>
+  </si>
+  <si>
+    <t>Un vert, avec ses pairs, jamais ne se perd,
+A la victoire 19h, retrouve tes 6 congénères, 
+Résoudre l'énigme tu devras faire, 
+On vous attend pour un ou plusieurs verres... 
+https://testsiteensc.000webhostapp.com/?id=2</t>
+  </si>
+  <si>
+    <t>Rdv à 19h à cet endroit précis : 44.831132,-0.572754 (pourquoi faire simple quand on peut faire compliqué ?)
+Check tes mails d'ici là ... Hâte de te rencontrer ! ♥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Envoie moi un petit message direct ! Et après la chasse au parrain commence tkp y a à boire à l'arrivée ! </t>
+  </si>
+  <si>
+    <t>RDV vers 18h30 : "Ça fait zumba café… Café au Carnaval !" 
+Bienvenue chez les jaunes 💛</t>
+  </si>
+  <si>
+    <t>Yo fillots/fillottte !
+Rendez vous à 19H à l'école sous le local à vélo, envois un message quand vous êtes plusieurs à vous êtres retrouvé.
+A tout à l'heure bisous</t>
+  </si>
+  <si>
+    <t>Si tu veux rencontrer ton parrain/ ta marraine envoie DJADJA au 0641765106</t>
+  </si>
+  <si>
+    <t>RDV 19h Hotel de Ville, place Pey Berland. Tente de retrouver Lucas Bardisbanian et de trouver un QR code.</t>
+  </si>
+  <si>
+    <t>mon premier est l'acronyme d'interface graphique
+mon second est un résultat intermédiaire utile à la démonstration d'un théorème
+mon tout sert à m'identifier</t>
+  </si>
+  <si>
+    <t>Coucou fillotte, n'étant pas présentes ni l'une ni l'autre lors de la soirée de jeudi, je t'invite à me retrouver dans l'école (quand vous aurez le droit d'y retourner ;) ). Petit indice je suis dans la vidéo des bleus avec mon parrain et malgré mon maquillage bleu tu me reconnaitras facilement ! (PS: je suis la maman des 2A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je t'attends pour cette fameuse bière, appelle ou envoie un message pour que je te dises où me retrouver (っ˘ڡ˘ς) </t>
+  </si>
+  <si>
+    <t>Bien le bonsoir fillote bien aimée ! Afin de découvrir mon identité secrète je te demande de te rendre à l’endroit suivant :
+Mon premier se trouve sur les côtes pour guider les bateaux
+Mon second se trouve sur les bateaux et supporte les voiles
+Mon troisième est un outil de bûcherons
+Mon quatrième vient après un
+Mon cinquième est une note de musique
+Mon sixième est ton meilleur ami la nuit
+Mon septième est un demi zizi
+Mon huitième est la 18ème lettre de l’alphabet
+Mon tout est le lieu où tu dois prendre un selfi pour obtenir la suite des informations
+Tu pourras envoyer ton selfi au 0637633431 (ou demander de l'aide, mais ça ferait de toi un mauvais agent secret).
+Les chips ne vont pas t'attendre longtemps &lt;3
+PS : Je sais que tu as dis que tu étais un peu maladroite socialement donc je préfère te prévenir on sera un peu nombreux, si tu ne te sens pas à l'aise à l'idée de venir (trop de monde, covid, ou même la flemme (oui c'est une excuse valable) n'hésites pas à le signaler au BDF et on s'organisera un petit moment de rencontre plus calme juste toi et moi (promis je te fais un date foireux (promis bis j'arrête les parenthèses)) Voilà ! No pression :D)</t>
+  </si>
+  <si>
+    <t>Rdv au Edwood Café (vers l'arrêt Forum) Jeudi vers 19h. Je serai vraisemblablement habillé de façon à sacrifier des bébés phoques sur le patio :)</t>
+  </si>
+  <si>
+    <t>Salut Jade, bienvenue chez les Jaunes, ta nouvelle famille !!! La petite photo c'est pour t'aider à me trouver, on se chauffe à faire une soirée jaune pour se présenter donc n'hésites pas à m'envoyer un message et je te donnerais les détails ou alors plus d'indices sur mon identité ;) Premier indice si tu es partante RDV vers 18H30 : "ça fait zumba café... Café au carnaval !"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salut, désolé je suis un parrain indigne: je fais rien ce soir mais envoie moi un message et on verra comment je peux me rattraper ^^. </t>
+  </si>
+  <si>
+    <t>RDV 19h Hotel de ville, place Pey Berland. Tente de retrouver Corentin Leger et de trouver un QR code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trouve les deux autres. Complétez l’énigme. Trouvez vos parrains.
+« Mon premier nie,
+…,
+…,
+Mon tout est votre soirée, votre intronisation, votre arrivée parmi nous ».
+Une fois l’énigme résolue, remplacer « xxxxxxxxxx » avec le mot obtenu :
+http://xxxxxxxxxx-ensc.ddns.net/
+</t>
+  </si>
+  <si>
+    <t>Un vert, avec ses pairs, jamais ne se perd,
+A la victoire 19h, retrouve tes 6 congénères, 
+Résoudre l'énigme tu devras faire,
+On vous attend pour un ou plusieurs verres 🍸
+(Clique sur ce super lien pour l’énigme 🤗)
+https://testsiteensc.000webhostapp.com/?id=7
+Bon courage 💚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bien le bonsoir cher(e) fillot(e), comme tu peux le voir je remplis tous les quotas de mixité. 
+Afin de découvrir mon identité secrète (ou pas), je te demande de te rendre à l’endroit suivant :
+Mon premier se trouve sur les côtes pour guider les bateaux
+Mon second se trouve sur les bateaux et supporte les voiles
+Mon troisième est un outil de bûcherons
+Mon quatrième vient après un
+Mon cinquième est une note de musique
+Mon sixième est ton meilleur ami la nuit
+Mon septième est un demi zizi
+Mon huitième est la 18ème lettre de l’alphabet
+Mon tout est le lieu où tu dois prendre un selfi pour obtenir la suite des informations
+Tu pourras envoyer ton selfi au 0681397070 ou  au 06 51 87 18 18 si t’as pas de réponse (désolée je suis overbookée)! 
+Et prends pas trop ton temps🏃‍♂️ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TU DOIS ÊTRE A LA VICTOIRE A 19H AU PLUS TARD
+4 autres personnes ont reçu un message similaire
+trouve les pour décrypter ceci : 
+Place de la victoire tu analyseras
+Le prochain message que la T _ _ _ _ _ te délivrera
+Premier indice : T
+Si vous êtes pas foutus de passer à la prochaine étape envoyez ALED au 06 82 34 13 00
+</t>
+  </si>
+  <si>
+    <t>Salut! Bon apparemment tu peux pas venir, c pas graveee, jte laisse le msg quand même si jamais tu rechanges d'avis mdrr :)
+Le grand soir est enfin arrivé, du coup ptite charade pour oit pour que tu trouves où venir :
+Mon 1er est un move de base du golf pour donner de l'élan
+Mon 2è est l'armée de l'eau (ou c aussi une nuance de bleu comme tu veux)
+Mon tout est un bar de Talence
+Voilàaaa donc à partir de 19h (+ du retard) et si tu trouves pas envoie-moi un msg :)
+A toute !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bon... il va falloir parler... Comment ça tu ne peux pas te libérer ? :'( J'espère que c'est pour une raison ahah! (Je t'avais réservé un super resto avec d'autres de la famille...) En tout cas très hâte de te rencontrer, même si on s'est un tout petit peu parlé ! Voilà n'hésite pas à me contacter et tout, je tiens à être présent pour toi &lt;3 </t>
+  </si>
+  <si>
+    <t>Bonjour fillote 😊J'espère que tu passes une bonne semaine. 
+Au moment ou j'écris ce message, je ne sais pas encore si tu es disponible jeudi soir pour une petite soirée, ou même si tu en as envie de sortir ce soir là. On se retrouve avec quelques membres du BDAdorable et leurs fillots et fillotes pour se rencontrer tous ensemble. Si jamais tu es partante tu peux m'envoyer un petit message ! Et sinon on peut toujours faire connaissance à un autre moment (en allant manger des cookies par exemple 🍪🥰). Dans tous les cas, n'hésite pas à me dire ce qui te convient le mieux 🐙 
+À très bientôt 🐢 
+Jade</t>
+  </si>
+  <si>
+    <t>Pour le lieu de RDV vers 18H30 : 
+"Et ça fait Zumba café ! Café au Carnaval"
+Bienvenue chez les jaunes 💛
+Sinon, déso de pas pouvoir être là pour fêter ça avec toi mais je sais que tu es entre de bonnes mains, du coup bienvenue chez les jaunes et passe une super soirée avec la meilleure famille 💛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mon premier se trouve sur les côtes pour guider les bateaux
+Mon second se trouve sur les bateaux et supporte les voiles
+Mon troisième est un outil de bûcherons
+Mon quatrième vient après un
+Mon cinquième est une note de musique
+Mon sixième est ton meilleur ami la nuit
+Mon septième est un demi zizi
+Mon huitième est la 18ème lettre de l’alphabet
+Mon tout est le lieu où tu dois prendre un selfie pour obtenir la suite des informations
+</t>
+  </si>
+  <si>
+    <t>Un vert, avec ses pairs, jamais ne se perd,
+A la victoire 19h, retrouve tes 6 congeneres, 
+Résoudre l'énigme tu devras faire 
+On vous attend pour un ou plusieurs verres
+Lien de l'enigme: https://testsiteensc.000webhostapp.com/?id=3</t>
+  </si>
+  <si>
+    <t>Rendez-vous 19h Hotel de Ville, Place Pey Berland. Tente de retrouver Lucie Cayment et de trouver un QRCode. ♥️</t>
+  </si>
+  <si>
+    <t>Bien le bonsoir chère fillote, pour commencer envoie "PERLINPINPIN" au 0645023767.
+Maintenant pour découvrir l’identité secrète de ta marraine (ou de ton parrain on sait jamais) je te demande de te rendre à l’endroit suivant :
+Mon premier est une lettre dont le rang est la Charente Maritime
+Mon second est le point commun entre 18, 27, 36, 45, 54, 63, 72, 81…
+Mon troisième est la première lettre du nom des 2 Baptiste de l’école
+Mon quatrième est une lettre dont le rang est le 2ème nombre premier suivant celui de mon premier
+Mon cinquième est un signe mathématique représentant l’addition
+Mon sixième représente une belle quantité de nains
+Mon septième apparaît dans le second et le cinquième mais pas dans les autres
+Mon tout est le lieu où tu dois prendre un selfie pour obtenir la suite des informations
+(indice : s’il n’y a pas d’Intermarché à proximité de ta destination, n’y vas pas tu t’es trompé)
+Tu pourras envoyer ton selfie au 0651871818
+Et dépêche toi un peu on va pas t’attendre toute la soirée 😘</t>
+  </si>
+  <si>
+    <t>Coucou filleule ! J’espère que t’aimes le Québec et leurs plats réconfortants, parce que ce soir c’est 19h au bistrot Au Nouveau Monde 🧡
+PS : si tu te sens perdue, sache que tu risques de retrouver une de tes camarades, dont le nom évoque peut-être une université québécoise... 😉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viens boire un coup avec nous à roustaing
+Ça va être bieng </t>
+  </si>
+  <si>
+    <t>Bienvenue chez les verts 💚
+Pour découvrir qui je suis et te faire offrir un verre, il va falloir utiliser tes méninges et une boussole (ou google maps, ça marche aussi).
+💡 Un (gros) indice : 44.831132,-0.572754.
+Tu es attendue à 19h.
+Fais vite, le mojito n'attendra pas!
+Joyeuse chasse aux parrains et puisse le sort t'être favorable 😘
+PS : regarde tes mails en arrivant à destination, tu y trouveras une surprise ✉</t>
+  </si>
+  <si>
+    <t>RDV à 19h Hotel de ville, place Pey Berland. Tente de retrouver Titouan Guebon et de trouver un QRcode. la bise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TU DOIS ÊTRE A LA VICTOIRE A 19H AU PLUS TARD
+4 autres personnes ont reçu un message similaire
+trouve les pour décrypter ceci : 
+Place de la victoire tu analyseras
+Le prochain message que la T _ _ _ _ _ te délivrera
+Premier indice : U
+Si vous êtes pas foutus de passer à la prochaine étape envoyez ALED au 06 82 34 13 00
+</t>
+  </si>
+  <si>
+    <t>Coucou c'est moi ta marraine ! J'ai vu que tu ne participais pas à la soirée jeudi mais je voulais quand même te laisser un petit message :) Si jamais tu changes d'avis pour jeudi je serai quand même (normalement) au Swing Marine avec quelques autres personnes de la famille orange. N'hésite pas à m'envoyer un message dès maintenant dans tous les cas pour qu'on puisse prendre contact. Et je te souhaite une bonne soirée, j'ai hâte de te rencontrer ;)</t>
+  </si>
+  <si>
+    <t>Je crois que tu es tombé sur la meilleure marraine qui soit !! oupsi x) A partir de 18h30-19h si veux découvrir qui je suis viens au swinguer en mer avec moi  à Roustaing !</t>
+  </si>
+  <si>
+    <t>TU DOIS ÊTRE A LA VICTOIRE A 19H AU PLUS TARD
+4 autres personnes ont reçu un message similaire
+trouve les pour décrypter ceci :
+Place de la victoire tu analyseras
+Le prochain message que la T_ _ _ _ _ [a] te délivrera
+Premier indice : O
+Si vous êtes pas foutus de passer à la prochaine étape envoyez ALED au 06 82 34 13 00</t>
+  </si>
+  <si>
+    <t>0658251235</t>
+  </si>
+  <si>
+    <t>0651022156</t>
+  </si>
+  <si>
+    <t>0649849637</t>
+  </si>
+  <si>
+    <t>0658168266</t>
+  </si>
+  <si>
+    <t>0685658249</t>
+  </si>
+  <si>
+    <t>0651533278</t>
+  </si>
+  <si>
+    <t>0610364653</t>
+  </si>
+  <si>
+    <t>0658180079</t>
+  </si>
+  <si>
+    <t>0602077720</t>
   </si>
   <si>
     <t>0783704605</t>
   </si>
   <si>
+    <t>0652784579</t>
+  </si>
+  <si>
+    <t>0613274336</t>
+  </si>
+  <si>
+    <t>0750863047</t>
+  </si>
+  <si>
+    <t>0651805341</t>
+  </si>
+  <si>
+    <t>0763307425</t>
+  </si>
+  <si>
+    <t>0647872476</t>
+  </si>
+  <si>
+    <t>0768343284</t>
+  </si>
+  <si>
+    <t>0633508682</t>
+  </si>
+  <si>
+    <t>0671761855</t>
+  </si>
+  <si>
+    <t>0632034060</t>
+  </si>
+  <si>
+    <t>Un jaune ne se perd jamais</t>
+  </si>
+  <si>
+    <t>0627633777</t>
+  </si>
+  <si>
+    <t>0770781269</t>
+  </si>
+  <si>
+    <t>0604405255</t>
+  </si>
+  <si>
+    <t>0661725804</t>
+  </si>
+  <si>
+    <t>0786282924</t>
+  </si>
+  <si>
+    <t>0633322894</t>
+  </si>
+  <si>
+    <t>0669923337 ❤️</t>
+  </si>
+  <si>
+    <t>0779494074</t>
+  </si>
+  <si>
+    <t>0770819621</t>
+  </si>
+  <si>
+    <t>0632969212</t>
+  </si>
+  <si>
+    <t>0638045273</t>
+  </si>
+  <si>
+    <t>0612402994</t>
+  </si>
+  <si>
+    <t>0648701825</t>
+  </si>
+  <si>
+    <t>0641765106</t>
+  </si>
+  <si>
+    <t>0637785530</t>
+  </si>
+  <si>
+    <t>0781569379</t>
+  </si>
+  <si>
+    <t>0677354776</t>
+  </si>
+  <si>
+    <t>0637633431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07 88 54 85 48 </t>
+  </si>
+  <si>
+    <t>0787054615</t>
+  </si>
+  <si>
     <t>0636664838</t>
   </si>
   <si>
-    <t>0641765106</t>
-  </si>
-  <si>
-    <t>aucun</t>
-  </si>
-  <si>
-    <t>0782648040</t>
+    <t>0789336945</t>
+  </si>
+  <si>
+    <t>0646012173</t>
+  </si>
+  <si>
+    <t>0681397070</t>
+  </si>
+  <si>
+    <t>0648662930</t>
+  </si>
+  <si>
+    <t>0628724689</t>
+  </si>
+  <si>
+    <t>0633118973</t>
+  </si>
+  <si>
+    <t>0652595186</t>
+  </si>
+  <si>
+    <t>0782172030</t>
+  </si>
+  <si>
+    <t>0760183081</t>
+  </si>
+  <si>
+    <t>0677450537</t>
+  </si>
+  <si>
+    <t>0651871818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 35 55 28 91 (stp spam moi je rep jamais la première fois qu’on m’appelle je suis une catastrophe) </t>
+  </si>
+  <si>
+    <t>0630053213</t>
+  </si>
+  <si>
+    <t>0695938589</t>
+  </si>
+  <si>
+    <t>0634394125</t>
+  </si>
+  <si>
+    <t>0682341300</t>
+  </si>
+  <si>
+    <t>0681787019</t>
+  </si>
+  <si>
+    <t>0607880938</t>
   </si>
 </sst>
 </file>
@@ -556,13 +2161,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,189 +2198,2988 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>215</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>40</v>
+        <v>180</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>328</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>333</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="L2" t="s">
+        <v>401</v>
+      </c>
+      <c r="M2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>216</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>41</v>
+        <v>280</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>329</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>333</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="L3" t="s">
+        <v>402</v>
+      </c>
+      <c r="M3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>42</v>
+        <v>171</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>330</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>333</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="L4" t="s">
+        <v>403</v>
+      </c>
+      <c r="M4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>218</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>43</v>
+        <v>281</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>329</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>333</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="L5" t="s">
+        <v>404</v>
+      </c>
+      <c r="M5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>330</v>
+      </c>
+      <c r="J6" t="s">
+        <v>333</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="L6" t="s">
+        <v>405</v>
+      </c>
+      <c r="M6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>330</v>
+      </c>
+      <c r="J7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L7" t="s">
+        <v>406</v>
+      </c>
+      <c r="M7" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F8" t="s">
+        <v>283</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>331</v>
+      </c>
+      <c r="J8" t="s">
+        <v>333</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="L8" t="s">
+        <v>407</v>
+      </c>
+      <c r="M8" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>330</v>
+      </c>
+      <c r="J9" t="s">
+        <v>333</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="L9" t="s">
+        <v>408</v>
+      </c>
+      <c r="M9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>331</v>
+      </c>
+      <c r="J10" t="s">
+        <v>333</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="L10" t="s">
+        <v>409</v>
+      </c>
+      <c r="M10" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>331</v>
+      </c>
+      <c r="J11" t="s">
+        <v>333</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="L11" t="s">
+        <v>409</v>
+      </c>
+      <c r="M11" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F12" t="s">
+        <v>286</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>328</v>
+      </c>
+      <c r="J12" t="s">
+        <v>333</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="L12" t="s">
+        <v>410</v>
+      </c>
+      <c r="M12" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" t="s">
+        <v>225</v>
+      </c>
+      <c r="F13" t="s">
+        <v>287</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>330</v>
+      </c>
+      <c r="J13" t="s">
+        <v>333</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="L13" t="s">
+        <v>411</v>
+      </c>
+      <c r="M13" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>331</v>
+      </c>
+      <c r="J14" t="s">
+        <v>333</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="L14" t="s">
+        <v>412</v>
+      </c>
+      <c r="M14" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F15" t="s">
+        <v>288</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>330</v>
+      </c>
+      <c r="J15" t="s">
+        <v>333</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="L15" t="s">
+        <v>413</v>
+      </c>
+      <c r="M15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" t="s">
+        <v>289</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>331</v>
+      </c>
+      <c r="J16" t="s">
+        <v>333</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="L16" t="s">
+        <v>414</v>
+      </c>
+      <c r="M16" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" t="s">
+        <v>229</v>
+      </c>
+      <c r="F17" t="s">
+        <v>290</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>331</v>
+      </c>
+      <c r="J17" t="s">
+        <v>333</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="L17" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" t="s">
+        <v>230</v>
+      </c>
+      <c r="F18" t="s">
+        <v>291</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>329</v>
+      </c>
+      <c r="J18" t="s">
+        <v>333</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="L18" t="s">
+        <v>416</v>
+      </c>
+      <c r="M18" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" t="s">
+        <v>231</v>
+      </c>
+      <c r="F19" t="s">
+        <v>292</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>332</v>
+      </c>
+      <c r="J19" t="s">
+        <v>333</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="L19" t="s">
+        <v>417</v>
+      </c>
+      <c r="M19" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F20" t="s">
+        <v>293</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>330</v>
+      </c>
+      <c r="J20" t="s">
+        <v>333</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="L20" t="s">
+        <v>418</v>
+      </c>
+      <c r="M20" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F21" t="s">
+        <v>294</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>331</v>
+      </c>
+      <c r="J21" t="s">
+        <v>333</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="L21" t="s">
+        <v>419</v>
+      </c>
+      <c r="M21" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" t="s">
+        <v>234</v>
+      </c>
+      <c r="F22" t="s">
+        <v>295</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>329</v>
+      </c>
+      <c r="J22" t="s">
+        <v>333</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="L22" t="s">
+        <v>420</v>
+      </c>
+      <c r="M22" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" t="s">
+        <v>175</v>
+      </c>
+      <c r="E23" t="s">
+        <v>235</v>
+      </c>
+      <c r="F23" t="s">
+        <v>296</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>330</v>
+      </c>
+      <c r="J23" t="s">
+        <v>333</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="L23" t="s">
+        <v>421</v>
+      </c>
+      <c r="M23" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" t="s">
+        <v>236</v>
+      </c>
+      <c r="F24" t="s">
+        <v>297</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>331</v>
+      </c>
+      <c r="J24" t="s">
+        <v>333</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="L24" t="s">
+        <v>422</v>
+      </c>
+      <c r="M24" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" t="s">
+        <v>237</v>
+      </c>
+      <c r="F25" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>329</v>
+      </c>
+      <c r="J25" t="s">
+        <v>333</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="L25" t="s">
+        <v>423</v>
+      </c>
+      <c r="M25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26" t="s">
+        <v>238</v>
+      </c>
+      <c r="F26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>332</v>
+      </c>
+      <c r="J26" t="s">
+        <v>333</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="L26" t="s">
+        <v>424</v>
+      </c>
+      <c r="M26" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" t="s">
+        <v>239</v>
+      </c>
+      <c r="F27" t="s">
+        <v>298</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>332</v>
+      </c>
+      <c r="J27" t="s">
+        <v>333</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="L27" t="s">
+        <v>425</v>
+      </c>
+      <c r="M27" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" t="s">
+        <v>179</v>
+      </c>
+      <c r="E28" t="s">
+        <v>240</v>
+      </c>
+      <c r="F28" t="s">
+        <v>299</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>329</v>
+      </c>
+      <c r="J28" t="s">
+        <v>333</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L28" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" t="s">
+        <v>241</v>
+      </c>
+      <c r="F29" t="s">
+        <v>180</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>332</v>
+      </c>
+      <c r="J29" t="s">
+        <v>333</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="L29" t="s">
+        <v>427</v>
+      </c>
+      <c r="M29" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" t="s">
+        <v>180</v>
+      </c>
+      <c r="E30" t="s">
+        <v>241</v>
+      </c>
+      <c r="F30" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>332</v>
+      </c>
+      <c r="J30" t="s">
+        <v>333</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="L30" t="s">
+        <v>427</v>
+      </c>
+      <c r="M30" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="F6" t="s">
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" t="s">
+        <v>242</v>
+      </c>
+      <c r="F31" t="s">
+        <v>300</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>332</v>
+      </c>
+      <c r="J31" t="s">
+        <v>333</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="L31" t="s">
+        <v>428</v>
+      </c>
+      <c r="M31" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" t="s">
+        <v>182</v>
+      </c>
+      <c r="E32" t="s">
+        <v>243</v>
+      </c>
+      <c r="F32" t="s">
+        <v>299</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>328</v>
+      </c>
+      <c r="J32" t="s">
+        <v>333</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="L32" t="s">
+        <v>429</v>
+      </c>
+      <c r="M32" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" t="s">
+        <v>183</v>
+      </c>
+      <c r="E33" t="s">
+        <v>244</v>
+      </c>
+      <c r="F33" t="s">
+        <v>301</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>331</v>
+      </c>
+      <c r="J33" t="s">
+        <v>333</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="L33" t="s">
+        <v>430</v>
+      </c>
+      <c r="M33" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" t="s">
+        <v>184</v>
+      </c>
+      <c r="E34" t="s">
+        <v>244</v>
+      </c>
+      <c r="F34" t="s">
+        <v>301</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>331</v>
+      </c>
+      <c r="J34" t="s">
+        <v>333</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="L34" t="s">
+        <v>430</v>
+      </c>
+      <c r="M34" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" t="s">
+        <v>245</v>
+      </c>
+      <c r="F35" t="s">
+        <v>302</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>328</v>
+      </c>
+      <c r="J35" t="s">
+        <v>333</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="L35" t="s">
+        <v>431</v>
+      </c>
+      <c r="M35" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="G6" t="s">
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" t="s">
+        <v>246</v>
+      </c>
+      <c r="F36" t="s">
+        <v>303</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>329</v>
+      </c>
+      <c r="J36" t="s">
+        <v>333</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="L36" t="s">
+        <v>432</v>
+      </c>
+      <c r="M36" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" t="s">
+        <v>186</v>
+      </c>
+      <c r="E37" t="s">
+        <v>247</v>
+      </c>
+      <c r="F37" t="s">
+        <v>304</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>332</v>
+      </c>
+      <c r="J37" t="s">
+        <v>333</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="L37" t="s">
+        <v>433</v>
+      </c>
+      <c r="M37" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" t="s">
+        <v>187</v>
+      </c>
+      <c r="E38" t="s">
+        <v>248</v>
+      </c>
+      <c r="F38" t="s">
+        <v>305</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>330</v>
+      </c>
+      <c r="J38" t="s">
+        <v>333</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="L38" t="s">
+        <v>434</v>
+      </c>
+      <c r="M38" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" t="s">
+        <v>188</v>
+      </c>
+      <c r="E39" t="s">
+        <v>249</v>
+      </c>
+      <c r="F39" t="s">
+        <v>180</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>331</v>
+      </c>
+      <c r="J39" t="s">
+        <v>333</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="L39" t="s">
+        <v>435</v>
+      </c>
+      <c r="M39" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="H6" t="s">
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" t="s">
+        <v>189</v>
+      </c>
+      <c r="E40" t="s">
+        <v>250</v>
+      </c>
+      <c r="F40" t="s">
+        <v>182</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>330</v>
+      </c>
+      <c r="J40" t="s">
+        <v>333</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="L40" t="s">
+        <v>436</v>
+      </c>
+      <c r="M40" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E41" t="s">
+        <v>251</v>
+      </c>
+      <c r="F41" t="s">
+        <v>306</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>328</v>
+      </c>
+      <c r="J41" t="s">
+        <v>333</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="L41" t="s">
+        <v>437</v>
+      </c>
+      <c r="M41" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" t="s">
+        <v>191</v>
+      </c>
+      <c r="E42" t="s">
+        <v>252</v>
+      </c>
+      <c r="F42" t="s">
+        <v>307</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>332</v>
+      </c>
+      <c r="J42" t="s">
+        <v>333</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="L42" t="s">
+        <v>438</v>
+      </c>
+      <c r="M42" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" t="s">
+        <v>192</v>
+      </c>
+      <c r="E43" t="s">
+        <v>253</v>
+      </c>
+      <c r="F43" t="s">
+        <v>308</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>332</v>
+      </c>
+      <c r="J43" t="s">
+        <v>333</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="L43" t="s">
+        <v>439</v>
+      </c>
+      <c r="M43" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" t="s">
+        <v>193</v>
+      </c>
+      <c r="E44" t="s">
+        <v>254</v>
+      </c>
+      <c r="F44" t="s">
+        <v>309</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>330</v>
+      </c>
+      <c r="J44" t="s">
+        <v>334</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="L44" t="s">
+        <v>440</v>
+      </c>
+      <c r="M44" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" t="s">
+        <v>194</v>
+      </c>
+      <c r="E45" t="s">
+        <v>255</v>
+      </c>
+      <c r="F45" t="s">
+        <v>162</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>328</v>
+      </c>
+      <c r="J45" t="s">
+        <v>333</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="L45" t="s">
+        <v>441</v>
+      </c>
+      <c r="M45" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="J6" t="s">
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" t="s">
+        <v>195</v>
+      </c>
+      <c r="E46" t="s">
+        <v>256</v>
+      </c>
+      <c r="F46" t="s">
+        <v>310</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>332</v>
+      </c>
+      <c r="J46" t="s">
+        <v>333</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="L46" t="s">
+        <v>442</v>
+      </c>
+      <c r="M46" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" t="s">
+        <v>196</v>
+      </c>
+      <c r="E47" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47" t="s">
+        <v>311</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>330</v>
+      </c>
+      <c r="J47" t="s">
+        <v>333</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="L47" t="s">
+        <v>443</v>
+      </c>
+      <c r="M47">
+        <v>601402930</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" t="s">
+        <v>197</v>
+      </c>
+      <c r="E48" t="s">
+        <v>153</v>
+      </c>
+      <c r="F48" t="s">
+        <v>311</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>330</v>
+      </c>
+      <c r="J48" t="s">
+        <v>333</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="L48" t="s">
+        <v>443</v>
+      </c>
+      <c r="M48">
+        <v>601402930</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" t="s">
+        <v>198</v>
+      </c>
+      <c r="E49" t="s">
+        <v>257</v>
+      </c>
+      <c r="F49" t="s">
+        <v>312</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>331</v>
+      </c>
+      <c r="J49" t="s">
+        <v>333</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="L49" t="s">
+        <v>444</v>
+      </c>
+      <c r="M49" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" t="s">
+        <v>199</v>
+      </c>
+      <c r="E50" t="s">
+        <v>258</v>
+      </c>
+      <c r="F50" t="s">
+        <v>313</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>331</v>
+      </c>
+      <c r="J50" t="s">
+        <v>334</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L50" t="s">
+        <v>445</v>
+      </c>
+      <c r="M50" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="K6" t="s">
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" t="s">
+        <v>200</v>
+      </c>
+      <c r="E51" t="s">
+        <v>259</v>
+      </c>
+      <c r="F51" t="s">
+        <v>314</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>332</v>
+      </c>
+      <c r="J51" t="s">
+        <v>333</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="L51" t="s">
+        <v>446</v>
+      </c>
+      <c r="M51" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D52" t="s">
+        <v>201</v>
+      </c>
+      <c r="E52" t="s">
+        <v>260</v>
+      </c>
+      <c r="F52" t="s">
+        <v>315</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>328</v>
+      </c>
+      <c r="J52" t="s">
+        <v>333</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="L52" t="s">
+        <v>447</v>
+      </c>
+      <c r="M52" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" t="s">
+        <v>202</v>
+      </c>
+      <c r="E53" t="s">
+        <v>261</v>
+      </c>
+      <c r="F53" t="s">
+        <v>158</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>329</v>
+      </c>
+      <c r="J53" t="s">
+        <v>333</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="L53" t="s">
+        <v>448</v>
+      </c>
+      <c r="M53" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" t="s">
+        <v>203</v>
+      </c>
+      <c r="E54" t="s">
+        <v>262</v>
+      </c>
+      <c r="F54" t="s">
+        <v>316</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>330</v>
+      </c>
+      <c r="J54" t="s">
+        <v>333</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="L54" t="s">
+        <v>449</v>
+      </c>
+      <c r="M54" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" t="s">
+        <v>204</v>
+      </c>
+      <c r="E55" t="s">
+        <v>263</v>
+      </c>
+      <c r="F55" t="s">
+        <v>206</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>329</v>
+      </c>
+      <c r="J55" t="s">
+        <v>333</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="L55" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="1">
         <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" t="s">
+        <v>205</v>
+      </c>
+      <c r="E56" t="s">
+        <v>264</v>
+      </c>
+      <c r="F56" t="s">
+        <v>317</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>328</v>
+      </c>
+      <c r="J56" t="s">
+        <v>333</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="L56" t="s">
+        <v>451</v>
+      </c>
+      <c r="M56" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57" t="s">
+        <v>206</v>
+      </c>
+      <c r="E57" t="s">
+        <v>265</v>
+      </c>
+      <c r="F57" t="s">
+        <v>318</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>331</v>
+      </c>
+      <c r="J57" t="s">
+        <v>333</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="L57" t="s">
+        <v>452</v>
+      </c>
+      <c r="M57" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58" t="s">
+        <v>207</v>
+      </c>
+      <c r="E58" t="s">
+        <v>266</v>
+      </c>
+      <c r="F58" t="s">
+        <v>198</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>329</v>
+      </c>
+      <c r="J58" t="s">
+        <v>333</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="L58" t="s">
+        <v>453</v>
+      </c>
+      <c r="M58" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" t="s">
+        <v>165</v>
+      </c>
+      <c r="E59" t="s">
+        <v>267</v>
+      </c>
+      <c r="F59" t="s">
+        <v>319</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>331</v>
+      </c>
+      <c r="J59" t="s">
+        <v>334</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="L59" t="s">
+        <v>454</v>
+      </c>
+      <c r="M59" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" t="s">
+        <v>141</v>
+      </c>
+      <c r="D60" t="s">
+        <v>159</v>
+      </c>
+      <c r="E60" t="s">
+        <v>268</v>
+      </c>
+      <c r="F60" t="s">
+        <v>320</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>330</v>
+      </c>
+      <c r="J60" t="s">
+        <v>333</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L60" t="s">
+        <v>455</v>
+      </c>
+      <c r="M60" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" t="s">
+        <v>142</v>
+      </c>
+      <c r="D61" t="s">
+        <v>181</v>
+      </c>
+      <c r="E61" t="s">
+        <v>269</v>
+      </c>
+      <c r="F61" t="s">
+        <v>321</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>329</v>
+      </c>
+      <c r="J61" t="s">
+        <v>333</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="L61" t="s">
+        <v>456</v>
+      </c>
+      <c r="M61" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" t="s">
+        <v>160</v>
+      </c>
+      <c r="E62" t="s">
+        <v>270</v>
+      </c>
+      <c r="F62" t="s">
+        <v>301</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>332</v>
+      </c>
+      <c r="J62" t="s">
+        <v>333</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="L62" t="s">
+        <v>457</v>
+      </c>
+      <c r="M62" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" t="s">
+        <v>144</v>
+      </c>
+      <c r="D63" t="s">
+        <v>208</v>
+      </c>
+      <c r="E63" t="s">
+        <v>271</v>
+      </c>
+      <c r="F63" t="s">
+        <v>322</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>332</v>
+      </c>
+      <c r="J63" t="s">
+        <v>333</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="L63" t="s">
+        <v>458</v>
+      </c>
+      <c r="M63" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" t="s">
+        <v>145</v>
+      </c>
+      <c r="D64" t="s">
+        <v>178</v>
+      </c>
+      <c r="E64" t="s">
+        <v>272</v>
+      </c>
+      <c r="F64" t="s">
+        <v>171</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>330</v>
+      </c>
+      <c r="J64" t="s">
+        <v>333</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L64" t="s">
+        <v>459</v>
+      </c>
+      <c r="M64" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" t="s">
+        <v>209</v>
+      </c>
+      <c r="E65" t="s">
+        <v>273</v>
+      </c>
+      <c r="F65" t="s">
+        <v>211</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>328</v>
+      </c>
+      <c r="J65" t="s">
+        <v>333</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="L65" t="s">
+        <v>460</v>
+      </c>
+      <c r="M65" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66" t="s">
+        <v>210</v>
+      </c>
+      <c r="E66" t="s">
+        <v>274</v>
+      </c>
+      <c r="F66" t="s">
+        <v>323</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>329</v>
+      </c>
+      <c r="J66" t="s">
+        <v>333</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="L66" t="s">
+        <v>461</v>
+      </c>
+      <c r="M66" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67" t="s">
+        <v>211</v>
+      </c>
+      <c r="E67" t="s">
+        <v>275</v>
+      </c>
+      <c r="F67" t="s">
+        <v>324</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>332</v>
+      </c>
+      <c r="J67" t="s">
+        <v>333</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="L67" t="s">
+        <v>462</v>
+      </c>
+      <c r="M67" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68" t="s">
+        <v>212</v>
+      </c>
+      <c r="E68" t="s">
+        <v>276</v>
+      </c>
+      <c r="F68" t="s">
+        <v>182</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>329</v>
+      </c>
+      <c r="J68" t="s">
+        <v>333</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="L68" t="s">
+        <v>463</v>
+      </c>
+      <c r="M68" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" t="s">
+        <v>150</v>
+      </c>
+      <c r="D69" t="s">
+        <v>213</v>
+      </c>
+      <c r="E69" t="s">
+        <v>276</v>
+      </c>
+      <c r="F69" t="s">
+        <v>182</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>329</v>
+      </c>
+      <c r="J69" t="s">
+        <v>333</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="L69" t="s">
+        <v>463</v>
+      </c>
+      <c r="M69" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" t="s">
+        <v>151</v>
+      </c>
+      <c r="D70" t="s">
+        <v>214</v>
+      </c>
+      <c r="E70" t="s">
+        <v>277</v>
+      </c>
+      <c r="F70" t="s">
+        <v>325</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>328</v>
+      </c>
+      <c r="J70" t="s">
+        <v>333</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="L70" t="s">
+        <v>464</v>
+      </c>
+      <c r="M70" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" t="s">
+        <v>152</v>
+      </c>
+      <c r="D71" t="s">
+        <v>206</v>
+      </c>
+      <c r="E71" t="s">
+        <v>278</v>
+      </c>
+      <c r="F71" t="s">
+        <v>326</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>328</v>
+      </c>
+      <c r="J71" t="s">
+        <v>333</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="L71" t="s">
+        <v>465</v>
+      </c>
+      <c r="M71" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" t="s">
+        <v>153</v>
+      </c>
+      <c r="D72" t="s">
+        <v>191</v>
+      </c>
+      <c r="E72" t="s">
+        <v>279</v>
+      </c>
+      <c r="F72" t="s">
+        <v>327</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
+        <v>329</v>
+      </c>
+      <c r="J72" t="s">
+        <v>333</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="L72" t="s">
+        <v>466</v>
+      </c>
+      <c r="M72" t="s">
+        <v>524</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="I5" r:id="rId4"/>
-    <hyperlink ref="I6" r:id="rId5"/>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId2"/>
+    <hyperlink ref="K4" r:id="rId3"/>
+    <hyperlink ref="K5" r:id="rId4"/>
+    <hyperlink ref="K6" r:id="rId5"/>
+    <hyperlink ref="K7" r:id="rId6"/>
+    <hyperlink ref="K8" r:id="rId7"/>
+    <hyperlink ref="K9" r:id="rId8"/>
+    <hyperlink ref="K10" r:id="rId9"/>
+    <hyperlink ref="K11" r:id="rId10"/>
+    <hyperlink ref="K12" r:id="rId11"/>
+    <hyperlink ref="K13" r:id="rId12"/>
+    <hyperlink ref="K14" r:id="rId13"/>
+    <hyperlink ref="K15" r:id="rId14"/>
+    <hyperlink ref="K16" r:id="rId15"/>
+    <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
+    <hyperlink ref="K19" r:id="rId18"/>
+    <hyperlink ref="K20" r:id="rId19"/>
+    <hyperlink ref="K21" r:id="rId20"/>
+    <hyperlink ref="K22" r:id="rId21"/>
+    <hyperlink ref="K23" r:id="rId22"/>
+    <hyperlink ref="K24" r:id="rId23"/>
+    <hyperlink ref="K25" r:id="rId24"/>
+    <hyperlink ref="K26" r:id="rId25"/>
+    <hyperlink ref="K27" r:id="rId26"/>
+    <hyperlink ref="K28" r:id="rId27"/>
+    <hyperlink ref="K29" r:id="rId28"/>
+    <hyperlink ref="K30" r:id="rId29"/>
+    <hyperlink ref="K31" r:id="rId30"/>
+    <hyperlink ref="K32" r:id="rId31"/>
+    <hyperlink ref="K33" r:id="rId32"/>
+    <hyperlink ref="K34" r:id="rId33"/>
+    <hyperlink ref="K35" r:id="rId34"/>
+    <hyperlink ref="K36" r:id="rId35"/>
+    <hyperlink ref="K37" r:id="rId36"/>
+    <hyperlink ref="K38" r:id="rId37"/>
+    <hyperlink ref="K39" r:id="rId38"/>
+    <hyperlink ref="K40" r:id="rId39"/>
+    <hyperlink ref="K41" r:id="rId40"/>
+    <hyperlink ref="K42" r:id="rId41"/>
+    <hyperlink ref="K43" r:id="rId42"/>
+    <hyperlink ref="K44" r:id="rId43"/>
+    <hyperlink ref="K45" r:id="rId44"/>
+    <hyperlink ref="K46" r:id="rId45"/>
+    <hyperlink ref="K47" r:id="rId46"/>
+    <hyperlink ref="K48" r:id="rId47"/>
+    <hyperlink ref="K49" r:id="rId48"/>
+    <hyperlink ref="K50" r:id="rId49"/>
+    <hyperlink ref="K51" r:id="rId50"/>
+    <hyperlink ref="K52" r:id="rId51"/>
+    <hyperlink ref="K53" r:id="rId52"/>
+    <hyperlink ref="K54" r:id="rId53"/>
+    <hyperlink ref="K55" r:id="rId54"/>
+    <hyperlink ref="K56" r:id="rId55"/>
+    <hyperlink ref="K57" r:id="rId56"/>
+    <hyperlink ref="K58" r:id="rId57"/>
+    <hyperlink ref="K59" r:id="rId58"/>
+    <hyperlink ref="K60" r:id="rId59"/>
+    <hyperlink ref="K61" r:id="rId60"/>
+    <hyperlink ref="K62" r:id="rId61"/>
+    <hyperlink ref="K63" r:id="rId62"/>
+    <hyperlink ref="K64" r:id="rId63"/>
+    <hyperlink ref="K65" r:id="rId64"/>
+    <hyperlink ref="K66" r:id="rId65"/>
+    <hyperlink ref="K67" r:id="rId66"/>
+    <hyperlink ref="K68" r:id="rId67"/>
+    <hyperlink ref="K69" r:id="rId68"/>
+    <hyperlink ref="K70" r:id="rId69"/>
+    <hyperlink ref="K71" r:id="rId70"/>
+    <hyperlink ref="K72" r:id="rId71"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BDF/liste_merged.xlsx
+++ b/BDF/liste_merged.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoi\Documents\2A\BDF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05AE1BE-551A-4563-BF7D-3CE1EE48FE64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="618">
   <si>
     <t>identifiant</t>
   </si>
@@ -88,12 +94,18 @@
     <t>asaracco</t>
   </si>
   <si>
+    <t>hhajjam</t>
+  </si>
+  <si>
     <t>bmetraud</t>
   </si>
   <si>
     <t>arondeau</t>
   </si>
   <si>
+    <t>adeny</t>
+  </si>
+  <si>
     <t>bhate</t>
   </si>
   <si>
@@ -106,6 +118,12 @@
     <t>lcayment</t>
   </si>
   <si>
+    <t>adoukkali</t>
+  </si>
+  <si>
+    <t>alarchi</t>
+  </si>
+  <si>
     <t>lphilippe</t>
   </si>
   <si>
@@ -169,6 +187,12 @@
     <t>ljacob</t>
   </si>
   <si>
+    <t>ejannot</t>
+  </si>
+  <si>
+    <t>rdurieux</t>
+  </si>
+  <si>
     <t>tlesavand</t>
   </si>
   <si>
@@ -178,6 +202,9 @@
     <t>egoulier</t>
   </si>
   <si>
+    <t>pbernard</t>
+  </si>
+  <si>
     <t>lrocuet</t>
   </si>
   <si>
@@ -199,6 +226,9 @@
     <t>vlucquiault</t>
   </si>
   <si>
+    <t>ioberlin</t>
+  </si>
+  <si>
     <t>blaran</t>
   </si>
   <si>
@@ -211,12 +241,18 @@
     <t>ngautier</t>
   </si>
   <si>
+    <t>cbernault</t>
+  </si>
+  <si>
     <t>scouderc</t>
   </si>
   <si>
     <t>asanad</t>
   </si>
   <si>
+    <t>mtoumine</t>
+  </si>
+  <si>
     <t>abarthas</t>
   </si>
   <si>
@@ -235,6 +271,12 @@
     <t>hcontardo</t>
   </si>
   <si>
+    <t>mlaval</t>
+  </si>
+  <si>
+    <t>cweinreich</t>
+  </si>
+  <si>
     <t>sjuan</t>
   </si>
   <si>
@@ -259,6 +301,9 @@
     <t>ctriat</t>
   </si>
   <si>
+    <t>tguedon</t>
+  </si>
+  <si>
     <t>aneyracontreras</t>
   </si>
   <si>
@@ -301,12 +346,18 @@
     <t>SARACCO</t>
   </si>
   <si>
+    <t>HAJJAM</t>
+  </si>
+  <si>
     <t>METRAUD</t>
   </si>
   <si>
     <t>RONDEAU</t>
   </si>
   <si>
+    <t>DENY</t>
+  </si>
+  <si>
     <t>HATE</t>
   </si>
   <si>
@@ -319,6 +370,12 @@
     <t>CAYMENT</t>
   </si>
   <si>
+    <t>DOUKKALI</t>
+  </si>
+  <si>
+    <t>LARCHI</t>
+  </si>
+  <si>
     <t>PHILIPPE</t>
   </si>
   <si>
@@ -382,6 +439,12 @@
     <t>JACOB</t>
   </si>
   <si>
+    <t>JANNOT</t>
+  </si>
+  <si>
+    <t>DURIEUX</t>
+  </si>
+  <si>
     <t>LESAVAND</t>
   </si>
   <si>
@@ -391,6 +454,9 @@
     <t>GOULIER</t>
   </si>
   <si>
+    <t>BERNARD</t>
+  </si>
+  <si>
     <t>ROCUET</t>
   </si>
   <si>
@@ -412,6 +478,9 @@
     <t>LUCQUIAULT</t>
   </si>
   <si>
+    <t>OBERLIN</t>
+  </si>
+  <si>
     <t>LARAN</t>
   </si>
   <si>
@@ -424,12 +493,18 @@
     <t>GAUTIER</t>
   </si>
   <si>
+    <t>BERNAULT</t>
+  </si>
+  <si>
     <t>COUDERC</t>
   </si>
   <si>
     <t>SANAD</t>
   </si>
   <si>
+    <t>TOUMINE</t>
+  </si>
+  <si>
     <t>BARTHAS</t>
   </si>
   <si>
@@ -448,6 +523,12 @@
     <t>CONTARDO</t>
   </si>
   <si>
+    <t>LAVAL</t>
+  </si>
+  <si>
+    <t>WEINREICH</t>
+  </si>
+  <si>
     <t>JUAN</t>
   </si>
   <si>
@@ -472,6 +553,9 @@
     <t>TRIAT</t>
   </si>
   <si>
+    <t>GUEDON</t>
+  </si>
+  <si>
     <t>NEYRA CONTRERAS</t>
   </si>
   <si>
@@ -514,12 +598,18 @@
     <t>Arthur</t>
   </si>
   <si>
+    <t>Hana</t>
+  </si>
+  <si>
     <t>Bettina</t>
   </si>
   <si>
     <t>Angeline</t>
   </si>
   <si>
+    <t>Audrey</t>
+  </si>
+  <si>
     <t>Benjamin</t>
   </si>
   <si>
@@ -532,6 +622,12 @@
     <t>Lucie</t>
   </si>
   <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Abderrahmane</t>
+  </si>
+  <si>
     <t>Léo</t>
   </si>
   <si>
@@ -586,6 +682,9 @@
     <t>Loïc</t>
   </si>
   <si>
+    <t>Evan</t>
+  </si>
+  <si>
     <t>Tristan</t>
   </si>
   <si>
@@ -616,6 +715,9 @@
     <t>Valentine</t>
   </si>
   <si>
+    <t>Isabelle</t>
+  </si>
+  <si>
     <t>Baptiste</t>
   </si>
   <si>
@@ -628,18 +730,30 @@
     <t>Noé</t>
   </si>
   <si>
+    <t>Chloe</t>
+  </si>
+  <si>
     <t>Sarah</t>
   </si>
   <si>
     <t>Akram</t>
   </si>
   <si>
+    <t>Milo</t>
+  </si>
+  <si>
     <t>Antoine</t>
   </si>
   <si>
     <t>Charlotte</t>
   </si>
   <si>
+    <t>Morgane</t>
+  </si>
+  <si>
+    <t>Clement</t>
+  </si>
+  <si>
     <t>Sara</t>
   </si>
   <si>
@@ -661,6 +775,9 @@
     <t>Camille</t>
   </si>
   <si>
+    <t>Titouan</t>
+  </si>
+  <si>
     <t>ARRACHEQUESNE</t>
   </si>
   <si>
@@ -694,12 +811,18 @@
     <t>CADO</t>
   </si>
   <si>
+    <t>CARACATSANIS</t>
+  </si>
+  <si>
     <t>CARLIEZ</t>
   </si>
   <si>
     <t>CHAUVIER</t>
   </si>
   <si>
+    <t>CIATTONI</t>
+  </si>
+  <si>
     <t>COGNET</t>
   </si>
   <si>
@@ -712,6 +835,9 @@
     <t>DE FOUCAUD</t>
   </si>
   <si>
+    <t>DE GASQUET</t>
+  </si>
+  <si>
     <t>DE LIGNY</t>
   </si>
   <si>
@@ -769,6 +895,12 @@
     <t>JUANEDA</t>
   </si>
   <si>
+    <t>LANUSSE--MALHENE</t>
+  </si>
+  <si>
+    <t>LARGEAULT</t>
+  </si>
+  <si>
     <t>LAUR</t>
   </si>
   <si>
@@ -778,6 +910,9 @@
     <t>LE MOIGNE</t>
   </si>
   <si>
+    <t>LEROY</t>
+  </si>
+  <si>
     <t>LETOURNEL</t>
   </si>
   <si>
@@ -793,6 +928,9 @@
     <t>MEDINA</t>
   </si>
   <si>
+    <t>MIGEON</t>
+  </si>
+  <si>
     <t>MORASSIN</t>
   </si>
   <si>
@@ -805,12 +943,18 @@
     <t>NDIAYE</t>
   </si>
   <si>
+    <t>OTHEGUY</t>
+  </si>
+  <si>
     <t>PARIZE</t>
   </si>
   <si>
     <t>PASCOTTINI</t>
   </si>
   <si>
+    <t>PELLETREAU</t>
+  </si>
+  <si>
     <t>PERRIER</t>
   </si>
   <si>
@@ -829,6 +973,12 @@
     <t>SCOLAN</t>
   </si>
   <si>
+    <t>SILLE</t>
+  </si>
+  <si>
+    <t>THELOT</t>
+  </si>
+  <si>
     <t>THOMAS</t>
   </si>
   <si>
@@ -847,7 +997,10 @@
     <t>VALLCANERAS</t>
   </si>
   <si>
-    <t>VALLÉE</t>
+    <t>VALLEE</t>
+  </si>
+  <si>
+    <t>VILAYLECK</t>
   </si>
   <si>
     <t>VINCENT</t>
@@ -880,9 +1033,15 @@
     <t>Erwan</t>
   </si>
   <si>
+    <t>Oriane</t>
+  </si>
+  <si>
     <t>Nathan</t>
   </si>
   <si>
+    <t>Ines</t>
+  </si>
+  <si>
     <t>Jean-Baptiste</t>
   </si>
   <si>
@@ -895,6 +1054,9 @@
     <t>Tess</t>
   </si>
   <si>
+    <t>Colin</t>
+  </si>
+  <si>
     <t>Tiphaine</t>
   </si>
   <si>
@@ -958,6 +1120,9 @@
     <t>Loic</t>
   </si>
   <si>
+    <t>Agathe</t>
+  </si>
+  <si>
     <t>Thibault</t>
   </si>
   <si>
@@ -967,9 +1132,15 @@
     <t>Mariam</t>
   </si>
   <si>
+    <t>Marion</t>
+  </si>
+  <si>
     <t>Canelle</t>
   </si>
   <si>
+    <t>Tom</t>
+  </si>
+  <si>
     <t>Alban</t>
   </si>
   <si>
@@ -982,15 +1153,15 @@
     <t>William</t>
   </si>
   <si>
+    <t>Clara</t>
+  </si>
+  <si>
     <t>Enora</t>
   </si>
   <si>
     <t>Maika</t>
   </si>
   <si>
-    <t>Clara</t>
-  </si>
-  <si>
     <t>Amandine</t>
   </si>
   <si>
@@ -1021,202 +1192,235 @@
     <t>non</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1iO2BIS3KJMIS_3K0meujcBh4dJv0-lnO</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1IWayheTpXQQkjYJ6UHQaYx0PoDvvOuFC</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1YmBszem1iDHkEOb_i5NPFlerTuKZf6Nz</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1JHg7BL4pbRzn4bdkYDuoCBeg8Bzl_T_P</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1u1eAALIl6hJD8KvUg3KgSY_Vk5wrUWIT</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1bToAEEVqmCqRk7XE8bEhZGxcIWGgC6vE</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1GG6koj6j2H-t2Y4tomG1_IhwxAuSro8Z</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1jw7K4tdYJCIYbTmuAblDEWBGxQKD_Azn</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1A9_frfqpDfttoZQa4jo9oWV2hr2Vy6_Q</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Q4k7Kj7eYS5vz7F46iJyTvkTm8xyWB2c/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1MteDm_CxZiYBj15zjC_lrVg_68cK24me</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1gdkyLvBFCWhtQBfEEcNHkuvK8H8chO3a</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1x0Kc-8LCOijt_dtrv8DsKFTeLjZ_iw-2</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1OB6qR2oYtF64D5Go2wbT-nyoWwSeEUcl</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1_4z_9Sr2Kr5sj0pQzCLsgZuy64u7R0JK</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1JHrreRG2Yem-hBko0N3nxfgQkYsbRL7Q</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=142bD31BW_Sq3TSJYR2XZ3mOnBblrFDgT</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1HeViqNjqWsV3s2adsP8KAsjAO8yZq0Sb</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1J0erYySarwRSb767kNE2ObXbb8RJMueo</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1PAS3Kr07DfJ0n9YdBu6i8B9ZR3Nnjwfj</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1CtuAhSHssMeS6FlM3ffDZ8g-83Ho-Ih0</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=19531TKbvIu0Q6Kt-xyJvAdFTXfm3oDYT</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1bN0Dx13i70ZmeBJzBMnjPPYaYuWVnwuz</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1ZosumyFXtyv8K-GVUrxMJYjkz8Fp2i52</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1BtKhBVKFhefWgz3QHqgYIQiUoVIhL4As</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1xRBCxIsgCG_i6QpjJbA3zCJETWWna63K</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1gQbf3MKp_w6zueuuqmL6zKaXZou303-5</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1uRXJKGD1clVg60b41UO3G36r9W58Fsf4</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1DrGkAmrmaUFD8co9d5gzVraXF7BKBMEX</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1jRi1N8NgEOwUPuGN8EWGR1IrJ7jlBZDa</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1Q-L_u_HdGIORq8QE7EudifKogga3lr7l</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1ewS4f0C5dBBj6MZiiquaRWT4kfemvs1B</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=16hW90LgzYyas2jQ18m2reCNs64DkybQK</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1qVJP0wkH1cpkwEAt9-iQnlnlNjR40oj5</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1o5uW_-QbF-w0HnLuM2Bn5X33bsCG0A8j</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1pPAItfzcz5M2qQby0CCa_uHPo_TXAulv</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1LhhvNnhzzJUyStZWH773rpzv-XmKmqZv</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1qoDfUc5nMc1JFP_Grlj7OXOL0htHeZGl</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1-wj-KBDO84JadvXXXWl6FD1AWXhwvbnj</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1jl4PPMcyznZkGqHu_gVjj40CAG6Y7wUh</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1lwJzQZgVnRrCZJQ_M6QiGNv5naz6TRd0</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1LnRwzsUslpcMV8ZOYT-qWliujBdJtQya</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1oQiwbu0eu7oS2ocNWBQiXb5EHNgLSg44</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1uhyw35nANvE3wJKDyWYsqAd_dzqaaBns</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1m7tI8UxmEa9rmMRbUUihxJ-KqzNvZP9d</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1KgTdqp4Fu8hEKvaHsH9pbhXlQ8v2S3FW</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=11JRl9VG0Qg_1skloySTLCPYPiEBb-b5r</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1tVaJTE743bnvqpR8Ec6-TKDj230RYtdg</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=18FrG57eiahEJPaNTBPtgZaQdNGBrD9sb</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1111wFtegeK7ZJ4Jb3XpxLD90l8uE2FG-</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1CaY_Rv1T_4p0HIPGUSnslHQn1BgfVDJP</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1mX4TqbO93DohZGfxAKlVgf4VKvMNrYJm</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1zoFwYrxrG4m78s8vdCne37_yWFqllIhO</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1iS144sj0AzDI2r2g8-_J5RSckl-EK6xu</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1XJeav14a9jV_Ou-tFf8JxKZsbAhX32Pz</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1L7IMi7t26-l_XfwwBNBEUhJ8SHntFC7_</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1q0Pw22xQNPlkxR_p27qzEeccvnpDfDS6</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1ll8DbKq0k176JeRfbsbNnOtoItTyFTyh</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1D3wKFgT3eWIyBr8Yr_NxjRLsMvd59vr3</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1AyeltRF7E_AU7Hq5b3cKiBBASDw4lHD2</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1QE5O4aiimXd_tv8m0JXjjuZPwXOmyX5z</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1moUpMb9jMWnGohPRIxXxYWBA44gfCwLO</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1sumJHmlITpQ574CCjrJ2AAEc6CNte2f_</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=12Ck6Rd6W_iVh7oLNJzLwrRi35Tox3s8p</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1IEm1KDjKa82Vu_6wKAWiA5PDut2fFvxB</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1s9gEVpDM17uZ-igMntAfmzTwb5CPy-zO</t>
+    <t>./img/arrachequesne_thomas.pdf</t>
+  </si>
+  <si>
+    <t>./img/arthuis_albane.jpeg</t>
+  </si>
+  <si>
+    <t>./img/bannay_lucie.jpg</t>
+  </si>
+  <si>
+    <t>./img/beaurepaire_margot.jpg</t>
+  </si>
+  <si>
+    <t>./img/binet_coline.JPG</t>
+  </si>
+  <si>
+    <t>./img/bonnefon_romain.PNG</t>
+  </si>
+  <si>
+    <t>./img/briand_julien.jpeg</t>
+  </si>
+  <si>
+    <t>./img/brissaud_cloe.jpg</t>
+  </si>
+  <si>
+    <t>./img/bulteau_justine.jpg</t>
+  </si>
+  <si>
+    <t>./img/cadet_elise.jpg</t>
+  </si>
+  <si>
+    <t>./img/cado_erwan.jpg</t>
+  </si>
+  <si>
+    <t>./img/caracatsanis_oriane.jpeg</t>
+  </si>
+  <si>
+    <t>./img/carliez_marine.jpg</t>
+  </si>
+  <si>
+    <t>./img/chauvier_nathan.png</t>
+  </si>
+  <si>
+    <t>./img/ciattoni_ines.jpeg</t>
+  </si>
+  <si>
+    <t>./img/cognet_jean-baptiste.jpg</t>
+  </si>
+  <si>
+    <t>./img/constans_thea.jpeg</t>
+  </si>
+  <si>
+    <t>./img/couffrant_adriana.jpg</t>
+  </si>
+  <si>
+    <t>./img/de foucaud_tess.jpeg</t>
+  </si>
+  <si>
+    <t>./img/de gasquet_colin.jpeg</t>
+  </si>
+  <si>
+    <t>./img/de ligny_thiphaine.jpg</t>
+  </si>
+  <si>
+    <t>./img/desclaux_nicolas.jpg</t>
+  </si>
+  <si>
+    <t>./img/devreese_martin.jpg</t>
+  </si>
+  <si>
+    <t>./img/dhellin_matthias.jpeg</t>
+  </si>
+  <si>
+    <t>./img/dizet_allan.jpg</t>
+  </si>
+  <si>
+    <t>./img/duboz_emma.jpg</t>
+  </si>
+  <si>
+    <t>./img/dupetit_camille.jpg</t>
+  </si>
+  <si>
+    <t>./img/durand_caroline.jpg</t>
+  </si>
+  <si>
+    <t>./img/esquirol_juliette.jpg</t>
+  </si>
+  <si>
+    <t>./img/faure_thomas.jpg</t>
+  </si>
+  <si>
+    <t>./img/fricaud_charles.JPG</t>
+  </si>
+  <si>
+    <t>./img/gadeau_juliette.jpg</t>
+  </si>
+  <si>
+    <t>./img/garlatti_laura.jpeg</t>
+  </si>
+  <si>
+    <t>./img/gass_aurelie.jpeg</t>
+  </si>
+  <si>
+    <t>./img/grondin_lea.jpg</t>
+  </si>
+  <si>
+    <t>./img/guerin_elisa.JPG</t>
+  </si>
+  <si>
+    <t>./img/guillet_oscar.jpg</t>
+  </si>
+  <si>
+    <t>./img/holstein_thomas.jpg</t>
+  </si>
+  <si>
+    <t>./img/juaneda_julie.jpg</t>
+  </si>
+  <si>
+    <t>./img/lanusse--malhene_corentin.png</t>
+  </si>
+  <si>
+    <t>./img/largeault_nicolas.jpg</t>
+  </si>
+  <si>
+    <t>./img/laur_simon.jpg</t>
+  </si>
+  <si>
+    <t>./img/lavenseau_louis.jpg</t>
+  </si>
+  <si>
+    <t>./img/le moigne_guilhem.JPG</t>
+  </si>
+  <si>
+    <t>./img/leroy_victor.jpg</t>
+  </si>
+  <si>
+    <t>./img/letournel_marie.jpg</t>
+  </si>
+  <si>
+    <t>./img/lorgue_paul.jpg</t>
+  </si>
+  <si>
+    <t>./img/lothaire_fannie.jpeg</t>
+  </si>
+  <si>
+    <t>./img/lucas_maelle.jpg</t>
+  </si>
+  <si>
+    <t>./img/maneux_tangi.JPG</t>
+  </si>
+  <si>
+    <t>./img/medina_loïc.png</t>
+  </si>
+  <si>
+    <t>./img/morassin_thibaut.jpg</t>
+  </si>
+  <si>
+    <t>./img/musacchio_pierre.jpg</t>
+  </si>
+  <si>
+    <t>./img/navarro_emma.jpeg</t>
+  </si>
+  <si>
+    <t>./img/ndiaye_mariam.jpeg</t>
+  </si>
+  <si>
+    <t>./img/otheguy_marion.jpg</t>
+  </si>
+  <si>
+    <t>./img/parize_antoine.JPG</t>
+  </si>
+  <si>
+    <t>./img/pascottini_canelle.jpg</t>
+  </si>
+  <si>
+    <t>./img/pelletreau_tom.jpeg</t>
+  </si>
+  <si>
+    <t>./img/perrier_alban.jpg</t>
+  </si>
+  <si>
+    <t>./img/petit_jade.JPG</t>
+  </si>
+  <si>
+    <t>./img/pierre_fanny.jpg</t>
+  </si>
+  <si>
+    <t>./img/pradal_judith.JPG</t>
+  </si>
+  <si>
+    <t>./img/saunders_william.jpg</t>
+  </si>
+  <si>
+    <t>./img/scolan_laura.jpeg</t>
+  </si>
+  <si>
+    <t>./img/sille_marie.jpeg</t>
+  </si>
+  <si>
+    <t>./img/thelot_clara.jpg</t>
+  </si>
+  <si>
+    <t>./img/thomas_enora.jpg</t>
+  </si>
+  <si>
+    <t>./img/thomasson_lucie.jpeg</t>
+  </si>
+  <si>
+    <t>./img/tomas_lucas.jpeg</t>
+  </si>
+  <si>
+    <t>./img/touzet_maïka.jpeg</t>
+  </si>
+  <si>
+    <t>./img/valentin_clara.jpg</t>
+  </si>
+  <si>
+    <t>./img/vallcaneras_julie.jpg</t>
+  </si>
+  <si>
+    <t>./img/vallee_amandine.JPG</t>
+  </si>
+  <si>
+    <t>./img/vilayleck_elise.jpeg</t>
+  </si>
+  <si>
+    <t>./img/vincent_amaury.jpg</t>
+  </si>
+  <si>
+    <t>./img/zuliani_matthéo.jpeg</t>
   </si>
   <si>
     <t>Holà fillot ! J'espère que tu vas bien ! Bon vu l'âge que j'ai sur la photo, pour me reconnaître je te souhaite 'bon chance'.
@@ -1277,6 +1481,9 @@
 Tu l'appelles Mère Patrie [...]
 Dors bien ce soir et vient en forme demain.
 Tchuuuuuss</t>
+  </si>
+  <si>
+    <t>Bienvenue dans la famille ! Je suis sûre que t'as hâte de boire (j'te connais déjà !) mais y a quelques étapes encore. Rejoins les autres 1A de notre famille à 19h au local à vélo à l'école. Envoie-moi un message pour la suite. J'ai hâte de te voir 💙</t>
   </si>
   <si>
     <t xml:space="preserve">Coucou ma fillote ! (le correcteur me propose filoute, est-ce un signe ?)
@@ -1301,6 +1508,9 @@
     <t xml:space="preserve">Rejoignez vous à l’ecole à 19h, au local à vélo </t>
   </si>
   <si>
+    <t>Quand fallait écrire ce mot on avait encore rien prévu mais y’a moyen que si tu t’arrêtes à roustaing et que tu cherches un bar avec un billard on y soit, bienvenue chez les oranges 🍊  (moi je vais arriver vers 20h30 mais tu peux y aller avant y'a d'autres oranges qu'ils sont très gentils dès 19h)</t>
+  </si>
+  <si>
     <t>RDV : 
 "Ça fait zumba café… Café au Carnaval !" 
 Bienvenue chez les jaunes 💛</t>
@@ -1318,6 +1528,13 @@
   </si>
   <si>
     <t>Rendez-vous Hotel de Ville, place Pey Berland. Tente de retrouver Baptiste Laran et de trouver un QR code &lt;3</t>
+  </si>
+  <si>
+    <t>Je ne suis pas lidio de la promo, mais peut-on dire que dans cette école je me sens comme un poisson dans l'eau ?
+Salut à toi très cher fillot ! C'est un plaisir de pouvoir enfin t'adresser quelques mots. Nous allons très bientôt nous rencontrer.
+Deux autres 1A ont reçu le même message. Je vous encourage tous les trois à vous retrouver le plus tôt possible à l'arrêt de bus Arts et Métiers, puis prenez ensemble le bus 8 direction Hôpital Pellegrin, descendez après 3 arrêts et rejoignez moi chez moi. Je vous y attends avec d'autres membres de votre nouvelle famille ORANGE !
+Dès que tu as lu ce message et enfilez tes meilleures chaussures, envoie LUNULE au 06.95.26.01.84 pour obtenir plus de détails sur mon adresse exacte. Envoie aussi LUNULE sur ta conv messenger de promo et sois à l’affût des deux autres personnes qui enverront le même message. Établis le contact avec eux pour que vous puissiez vous rejoindre au point de rdv évoqué ci dessus.
+La chasse est ouverte 😉🧡</t>
   </si>
   <si>
     <t>Tu me retrouveras facilement grâce à mon grand nez 👃 😜 
@@ -1400,7 +1617,8 @@
 A la victoire 19h, retrouve tes 6 congénères, 
 Résoudre l'énigme tu devras faire, 
 On vous attend pour un ou plusieurs verres... 
-https://testsiteensc.000webhostapp.com/?id=2</t>
+https://testsiteensc.000webhostapp.com/?id=2
+Ps : j'ai appris que tu ne pouvais pas venir ce soir, et je suis trop triste 😢 J'espère que tu n'es pas trop en PLS et que tu va vite te rétablir !! 💚 En attendant, si tu m'as reconnue sur la photo, n'hésite pas à m'envoyer un message ! 😉 Et dès que tu vas mieux, on se capte pour boire un verre ou se faire une petite bouffe si t'es cho !</t>
   </si>
   <si>
     <t>Rdv à 19h à cet endroit précis : 44.831132,-0.572754 (pourquoi faire simple quand on peut faire compliqué ?)
@@ -1419,6 +1637,19 @@
 A tout à l'heure bisous</t>
   </si>
   <si>
+    <t>Trouve les deux autres. Complétez l’énigme. Trouvez vos parrains.
+« …,
+…,
+Mon dernier augmente tant que votre heure n’a pas sonné,
+Mon tout est votre soirée, votre intronisation, votre arrivée parmi nous ».
+Une fois l’énigme résolue, remplacez « xxxxxxxxxx » avec le mot obtenu :
+http://xxxxxxxxxx-ensc.ddns.net/
+Signé Sir Anselme Thane Ó'Lucenn</t>
+  </si>
+  <si>
+    <t>Si t coroned fdp, jte goume 🧡</t>
+  </si>
+  <si>
     <t>Si tu veux rencontrer ton parrain/ ta marraine envoie DJADJA au 0641765106</t>
   </si>
   <si>
@@ -1428,6 +1659,9 @@
     <t>mon premier est l'acronyme d'interface graphique
 mon second est un résultat intermédiaire utile à la démonstration d'un théorème
 mon tout sert à m'identifier</t>
+  </si>
+  <si>
+    <t>Yo, si tu changes d'avis pour le 15 on a prévu une petite soirée sympa avec qqs 2A, contacte moi, sinon (si tu peux pas c'est rien tkt 😉) on se fera un truc une prochaine fois. A bientôt ✌️</t>
   </si>
   <si>
     <t>Coucou fillotte, n'étant pas présentes ni l'une ni l'autre lors de la soirée de jeudi, je t'invite à me retrouver dans l'école (quand vous aurez le droit d'y retourner ;) ). Petit indice je suis dans la vidéo des bleus avec mon parrain et malgré mon maquillage bleu tu me reconnaitras facilement ! (PS: je suis la maman des 2A)</t>
@@ -1460,6 +1694,9 @@
     <t xml:space="preserve">Salut, désolé je suis un parrain indigne: je fais rien ce soir mais envoie moi un message et on verra comment je peux me rattraper ^^. </t>
   </si>
   <si>
+    <t xml:space="preserve">Salut je fais rien ce soir mais on peut se capter plus tard pour faire un pic nique ou passer un moment sympa. N'hésite pas à m'envoyer un message :) </t>
+  </si>
+  <si>
     <t>RDV 19h Hotel de ville, place Pey Berland. Tente de retrouver Corentin Leger et de trouver un QR code</t>
   </si>
   <si>
@@ -1497,6 +1734,16 @@
 Et prends pas trop ton temps🏃‍♂️ </t>
   </si>
   <si>
+    <t>Le choixpoulpe a parlé : puisse le soleil qu'est cette famille être tienne, bienvenue dans la lignée fillote !
+Chez les jaunes, on pense qu'ensemble on est plus fort. Peut-être qu'une alliance te mènera à ta marraine / ton parrain.
+Lune sera ton nom de code,  cherche ton/ta partenaire céleste.
+...
+Pour mon second, celle des Quinconces est la plus grande de France / d'Europe (faut qu'on se mette d'accord 😉 )
+...
+Mon tout est l'adresse où votre nouvelle famille vous attendra à 19h30
+En cas de difficultés, n'hésite pas à appeler ;)</t>
+  </si>
+  <si>
     <t xml:space="preserve">TU DOIS ÊTRE A LA VICTOIRE A 19H AU PLUS TARD
 4 autres personnes ont reçu un message similaire
 trouve les pour décrypter ceci : 
@@ -1514,6 +1761,9 @@
 Mon tout est un bar de Talence
 Voilàaaa donc à partir de 19h (+ du retard) et si tu trouves pas envoie-moi un msg :)
 A toute !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tu sais où me trouver ce soir. 23 cours de la Marne mon gars </t>
   </si>
   <si>
     <t xml:space="preserve">Bon... il va falloir parler... Comment ça tu ne peux pas te libérer ? :'( J'espère que c'est pour une raison ahah! (Je t'avais réservé un super resto avec d'autres de la famille...) En tout cas très hâte de te rencontrer, même si on s'est un tout petit peu parlé ! Voilà n'hésite pas à me contacter et tout, je tiens à être présent pour toi &lt;3 </t>
@@ -1551,6 +1801,17 @@
   </si>
   <si>
     <t>Rendez-vous 19h Hotel de Ville, Place Pey Berland. Tente de retrouver Lucie Cayment et de trouver un QRCode. ♥️</t>
+  </si>
+  <si>
+    <t>Ici ta marraine
+Tu vas pouvoir me rencontrer jeudi au bar Au nouveau monde à Bordeaux. Je serai avec une autre 2A. Vous serai donc deux 1A à nous chercher (cette personne a reçu un indice sur toi). Nous serons également accompagnées de nos marraines respectives. De plus, je porterai un signe distinctif de l’école (histoire que tu ne te trompes pas de marraine ;))
+Le bar propose des bières artisanales bio très sympa ainsi que des burgers et de la poutine faits maison. On compte manger et boire un coup là-bas.
+Récap : RDV jeudi 15 octobre à 19h Au nouveau monde (2 Rue des Boucheries, 33000 Bordeaux)
+PS : Si tu as un souci ou une question, n’hésite pas à me joindre par sms</t>
+  </si>
+  <si>
+    <t>Allez fillot cette photo t'aidera pas beaucoup mais tu me connais ! Mais prépare toi à rencontre ta lignée et le groupe qui va avec hehehe
+Rdv au Frog &amp; Rosbif à 19h !</t>
   </si>
   <si>
     <t>Bien le bonsoir chère fillote, pour commencer envoie "PERLINPINPIN" au 0645023767.
@@ -1601,6 +1862,9 @@
     <t>Coucou c'est moi ta marraine ! J'ai vu que tu ne participais pas à la soirée jeudi mais je voulais quand même te laisser un petit message :) Si jamais tu changes d'avis pour jeudi je serai quand même (normalement) au Swing Marine avec quelques autres personnes de la famille orange. N'hésite pas à m'envoyer un message dès maintenant dans tous les cas pour qu'on puisse prendre contact. Et je te souhaite une bonne soirée, j'ai hâte de te rencontrer ;)</t>
   </si>
   <si>
+    <t>Rdv 19h à Hôtel de Ville, place de Pey Berland. Tente de retrouver Hugo Contardo et de trouver un QR Code 🥃</t>
+  </si>
+  <si>
     <t>Je crois que tu es tombé sur la meilleure marraine qui soit !! oupsi x) A partir de 18h30-19h si veux découvrir qui je suis viens au swinguer en mer avec moi  à Roustaing !</t>
   </si>
   <si>
@@ -1646,12 +1910,18 @@
     <t>0652784579</t>
   </si>
   <si>
+    <t>0618979688</t>
+  </si>
+  <si>
     <t>0613274336</t>
   </si>
   <si>
     <t>0750863047</t>
   </si>
   <si>
+    <t>0624252623 (tout ça pour recup des 06 c’est honteux)</t>
+  </si>
+  <si>
     <t>0651805341</t>
   </si>
   <si>
@@ -1661,6 +1931,9 @@
     <t>0647872476</t>
   </si>
   <si>
+    <t xml:space="preserve">06.95.26.01.84 / cdegasquet@ensc.fr </t>
+  </si>
+  <si>
     <t>0768343284</t>
   </si>
   <si>
@@ -1715,6 +1988,12 @@
     <t>0648701825</t>
   </si>
   <si>
+    <t>0782157624</t>
+  </si>
+  <si>
+    <t>07 50 95 41 26</t>
+  </si>
+  <si>
     <t>0641765106</t>
   </si>
   <si>
@@ -1724,6 +2003,9 @@
     <t>0781569379</t>
   </si>
   <si>
+    <t>0651417354</t>
+  </si>
+  <si>
     <t>0677354776</t>
   </si>
   <si>
@@ -1736,6 +2018,9 @@
     <t>0787054615</t>
   </si>
   <si>
+    <t>0672150355</t>
+  </si>
+  <si>
     <t>0636664838</t>
   </si>
   <si>
@@ -1748,9 +2033,15 @@
     <t>0681397070</t>
   </si>
   <si>
+    <t>0676279606</t>
+  </si>
+  <si>
     <t>0648662930</t>
   </si>
   <si>
+    <t>0651012619</t>
+  </si>
+  <si>
     <t>0628724689</t>
   </si>
   <si>
@@ -1769,6 +2060,12 @@
     <t>0677450537</t>
   </si>
   <si>
+    <t>0674604157</t>
+  </si>
+  <si>
+    <t>0633124689</t>
+  </si>
+  <si>
     <t>0651871818</t>
   </si>
   <si>
@@ -1790,14 +2087,20 @@
     <t>0681787019</t>
   </si>
   <si>
+    <t>0761943279</t>
+  </si>
+  <si>
     <t>0607880938</t>
+  </si>
+  <si>
+    <t>./img/logoBDF.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1812,13 +2115,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1853,31 +2149,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1919,7 +2217,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1951,9 +2249,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1985,6 +2301,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2160,14 +2494,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2205,7 +2541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2213,16 +2549,16 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="E2" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="F2" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -2231,22 +2567,22 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>328</v>
+        <v>383</v>
       </c>
       <c r="J2" t="s">
-        <v>333</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>335</v>
+        <v>388</v>
+      </c>
+      <c r="K2" t="s">
+        <v>390</v>
       </c>
       <c r="L2" t="s">
-        <v>401</v>
+        <v>467</v>
       </c>
       <c r="M2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2254,16 +2590,16 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="E3" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="F3" t="s">
-        <v>280</v>
+        <v>329</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -2272,22 +2608,22 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>329</v>
+        <v>384</v>
       </c>
       <c r="J3" t="s">
-        <v>333</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>336</v>
+        <v>388</v>
+      </c>
+      <c r="K3" t="s">
+        <v>391</v>
       </c>
       <c r="L3" t="s">
-        <v>402</v>
+        <v>468</v>
       </c>
       <c r="M3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2295,16 +2631,16 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -2313,22 +2649,22 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>330</v>
+        <v>385</v>
       </c>
       <c r="J4" t="s">
-        <v>333</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>337</v>
+        <v>388</v>
+      </c>
+      <c r="K4" t="s">
+        <v>392</v>
       </c>
       <c r="L4" t="s">
-        <v>403</v>
+        <v>469</v>
       </c>
       <c r="M4" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2336,16 +2672,16 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="E5" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="F5" t="s">
-        <v>281</v>
+        <v>330</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -2354,22 +2690,22 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>329</v>
+        <v>384</v>
       </c>
       <c r="J5" t="s">
-        <v>333</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>338</v>
+        <v>388</v>
+      </c>
+      <c r="K5" t="s">
+        <v>393</v>
       </c>
       <c r="L5" t="s">
-        <v>404</v>
+        <v>470</v>
       </c>
       <c r="M5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2377,16 +2713,16 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="F6" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -2395,22 +2731,22 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>330</v>
+        <v>385</v>
       </c>
       <c r="J6" t="s">
-        <v>333</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>339</v>
+        <v>388</v>
+      </c>
+      <c r="K6" t="s">
+        <v>394</v>
       </c>
       <c r="L6" t="s">
-        <v>405</v>
+        <v>471</v>
       </c>
       <c r="M6" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2418,16 +2754,16 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="E7" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="F7" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -2436,22 +2772,22 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>330</v>
+        <v>385</v>
       </c>
       <c r="J7" t="s">
-        <v>333</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>340</v>
+        <v>388</v>
+      </c>
+      <c r="K7" t="s">
+        <v>395</v>
       </c>
       <c r="L7" t="s">
-        <v>406</v>
+        <v>472</v>
       </c>
       <c r="M7" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2459,16 +2795,16 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="F8" t="s">
-        <v>283</v>
+        <v>332</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -2477,22 +2813,22 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>331</v>
+        <v>386</v>
       </c>
       <c r="J8" t="s">
-        <v>333</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>341</v>
+        <v>388</v>
+      </c>
+      <c r="K8" t="s">
+        <v>396</v>
       </c>
       <c r="L8" t="s">
-        <v>407</v>
+        <v>473</v>
       </c>
       <c r="M8" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2500,16 +2836,16 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="E9" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="F9" t="s">
-        <v>284</v>
+        <v>333</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -2518,22 +2854,22 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>330</v>
+        <v>385</v>
       </c>
       <c r="J9" t="s">
-        <v>333</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>342</v>
+        <v>388</v>
+      </c>
+      <c r="K9" t="s">
+        <v>397</v>
       </c>
       <c r="L9" t="s">
-        <v>408</v>
+        <v>474</v>
       </c>
       <c r="M9" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2541,16 +2877,16 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E10" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="F10" t="s">
-        <v>285</v>
+        <v>334</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -2559,22 +2895,22 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>331</v>
+        <v>386</v>
       </c>
       <c r="J10" t="s">
-        <v>333</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>343</v>
+        <v>388</v>
+      </c>
+      <c r="K10" t="s">
+        <v>398</v>
       </c>
       <c r="L10" t="s">
-        <v>409</v>
+        <v>475</v>
       </c>
       <c r="M10" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2582,16 +2918,16 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="E11" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="F11" t="s">
-        <v>285</v>
+        <v>334</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -2600,22 +2936,22 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>331</v>
+        <v>386</v>
       </c>
       <c r="J11" t="s">
-        <v>333</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>343</v>
+        <v>388</v>
+      </c>
+      <c r="K11" t="s">
+        <v>398</v>
       </c>
       <c r="L11" t="s">
-        <v>409</v>
+        <v>475</v>
       </c>
       <c r="M11" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2623,16 +2959,16 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="E12" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="F12" t="s">
-        <v>286</v>
+        <v>335</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -2641,22 +2977,22 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>328</v>
+        <v>383</v>
       </c>
       <c r="J12" t="s">
-        <v>333</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>344</v>
+        <v>388</v>
+      </c>
+      <c r="K12" t="s">
+        <v>399</v>
       </c>
       <c r="L12" t="s">
-        <v>410</v>
+        <v>476</v>
       </c>
       <c r="M12" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2664,16 +3000,16 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="E13" t="s">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="F13" t="s">
-        <v>287</v>
+        <v>336</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -2682,22 +3018,22 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>330</v>
+        <v>385</v>
       </c>
       <c r="J13" t="s">
-        <v>333</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>345</v>
+        <v>388</v>
+      </c>
+      <c r="K13" t="s">
+        <v>400</v>
       </c>
       <c r="L13" t="s">
-        <v>411</v>
+        <v>477</v>
       </c>
       <c r="M13" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2705,16 +3041,16 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="E14" t="s">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c r="F14" t="s">
-        <v>173</v>
+        <v>337</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -2723,22 +3059,22 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
       <c r="J14" t="s">
-        <v>333</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>346</v>
+        <v>388</v>
+      </c>
+      <c r="K14" t="s">
+        <v>401</v>
       </c>
       <c r="L14" t="s">
-        <v>412</v>
+        <v>478</v>
       </c>
       <c r="M14" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2746,16 +3082,16 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="E15" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="F15" t="s">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -2764,22 +3100,22 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>330</v>
+        <v>386</v>
       </c>
       <c r="J15" t="s">
-        <v>333</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>347</v>
+        <v>388</v>
+      </c>
+      <c r="K15" t="s">
+        <v>402</v>
       </c>
       <c r="L15" t="s">
-        <v>413</v>
+        <v>479</v>
       </c>
       <c r="M15" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2787,16 +3123,16 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="E16" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="F16" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -2805,22 +3141,22 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
       <c r="J16" t="s">
-        <v>333</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>348</v>
+        <v>388</v>
+      </c>
+      <c r="K16" t="s">
+        <v>403</v>
       </c>
       <c r="L16" t="s">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="M16" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2828,16 +3164,16 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="E17" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="F17" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -2846,19 +3182,22 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>331</v>
+        <v>383</v>
       </c>
       <c r="J17" t="s">
-        <v>333</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>349</v>
+        <v>388</v>
+      </c>
+      <c r="K17" t="s">
+        <v>404</v>
       </c>
       <c r="L17" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>481</v>
+      </c>
+      <c r="M17" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2866,16 +3205,16 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="E18" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="F18" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -2884,22 +3223,22 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>329</v>
+        <v>386</v>
       </c>
       <c r="J18" t="s">
-        <v>333</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>350</v>
+        <v>388</v>
+      </c>
+      <c r="K18" t="s">
+        <v>405</v>
       </c>
       <c r="L18" t="s">
-        <v>416</v>
+        <v>482</v>
       </c>
       <c r="M18" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2907,16 +3246,16 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="E19" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="F19" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -2925,22 +3264,19 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="J19" t="s">
-        <v>333</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>351</v>
+        <v>388</v>
+      </c>
+      <c r="K19" t="s">
+        <v>406</v>
       </c>
       <c r="L19" t="s">
-        <v>417</v>
-      </c>
-      <c r="M19" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2948,16 +3284,16 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="E20" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="F20" t="s">
-        <v>293</v>
+        <v>342</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -2966,22 +3302,22 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="J20" t="s">
-        <v>333</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>352</v>
+        <v>388</v>
+      </c>
+      <c r="K20" t="s">
+        <v>407</v>
       </c>
       <c r="L20" t="s">
-        <v>418</v>
+        <v>484</v>
       </c>
       <c r="M20" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2989,16 +3325,16 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="E21" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="F21" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -3007,22 +3343,22 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>331</v>
+        <v>387</v>
       </c>
       <c r="J21" t="s">
-        <v>333</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>353</v>
+        <v>388</v>
+      </c>
+      <c r="K21" t="s">
+        <v>408</v>
       </c>
       <c r="L21" t="s">
-        <v>419</v>
+        <v>485</v>
       </c>
       <c r="M21" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3030,16 +3366,16 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="E22" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="F22" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -3048,22 +3384,22 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
       <c r="J22" t="s">
-        <v>333</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>354</v>
+        <v>388</v>
+      </c>
+      <c r="K22" t="s">
+        <v>409</v>
       </c>
       <c r="L22" t="s">
-        <v>420</v>
+        <v>486</v>
       </c>
       <c r="M22" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3071,16 +3407,16 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="E23" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="F23" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -3089,22 +3425,22 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>330</v>
+        <v>383</v>
       </c>
       <c r="J23" t="s">
-        <v>333</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>355</v>
+        <v>388</v>
+      </c>
+      <c r="K23" t="s">
+        <v>409</v>
       </c>
       <c r="L23" t="s">
-        <v>421</v>
+        <v>486</v>
       </c>
       <c r="M23" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3112,16 +3448,16 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="E24" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="F24" t="s">
-        <v>297</v>
+        <v>345</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -3130,22 +3466,22 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
       <c r="J24" t="s">
-        <v>333</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>356</v>
+        <v>388</v>
+      </c>
+      <c r="K24" t="s">
+        <v>410</v>
       </c>
       <c r="L24" t="s">
-        <v>422</v>
+        <v>487</v>
       </c>
       <c r="M24" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3153,16 +3489,16 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="E25" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="F25" t="s">
-        <v>158</v>
+        <v>346</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -3171,22 +3507,22 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>329</v>
+        <v>386</v>
       </c>
       <c r="J25" t="s">
-        <v>333</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>357</v>
+        <v>388</v>
+      </c>
+      <c r="K25" t="s">
+        <v>411</v>
       </c>
       <c r="L25" t="s">
-        <v>423</v>
+        <v>488</v>
       </c>
       <c r="M25" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3194,16 +3530,16 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="E26" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="F26" t="s">
-        <v>214</v>
+        <v>347</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -3212,22 +3548,22 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>332</v>
+        <v>384</v>
       </c>
       <c r="J26" t="s">
-        <v>333</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>358</v>
+        <v>388</v>
+      </c>
+      <c r="K26" t="s">
+        <v>412</v>
       </c>
       <c r="L26" t="s">
-        <v>424</v>
+        <v>489</v>
       </c>
       <c r="M26" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3235,16 +3571,16 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="E27" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="F27" t="s">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -3253,22 +3589,22 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>332</v>
+        <v>385</v>
       </c>
       <c r="J27" t="s">
-        <v>333</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>359</v>
+        <v>388</v>
+      </c>
+      <c r="K27" t="s">
+        <v>413</v>
       </c>
       <c r="L27" t="s">
-        <v>425</v>
+        <v>490</v>
       </c>
       <c r="M27" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3276,16 +3612,16 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="E28" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="F28" t="s">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -3294,19 +3630,22 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>329</v>
+        <v>386</v>
       </c>
       <c r="J28" t="s">
-        <v>333</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>360</v>
+        <v>388</v>
+      </c>
+      <c r="K28" t="s">
+        <v>414</v>
       </c>
       <c r="L28" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>491</v>
+      </c>
+      <c r="M28" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3314,16 +3653,16 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D29" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="E29" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="F29" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -3332,22 +3671,22 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>332</v>
+        <v>384</v>
       </c>
       <c r="J29" t="s">
-        <v>333</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>361</v>
+        <v>388</v>
+      </c>
+      <c r="K29" t="s">
+        <v>415</v>
       </c>
       <c r="L29" t="s">
-        <v>427</v>
+        <v>492</v>
       </c>
       <c r="M29" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3355,16 +3694,16 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D30" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="E30" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="F30" t="s">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -3373,22 +3712,22 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>332</v>
+        <v>387</v>
       </c>
       <c r="J30" t="s">
-        <v>333</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>361</v>
+        <v>388</v>
+      </c>
+      <c r="K30" t="s">
+        <v>416</v>
       </c>
       <c r="L30" t="s">
-        <v>427</v>
+        <v>493</v>
       </c>
       <c r="M30" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3396,16 +3735,16 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D31" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="E31" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="F31" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
@@ -3414,22 +3753,22 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>332</v>
+        <v>387</v>
       </c>
       <c r="J31" t="s">
-        <v>333</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>362</v>
+        <v>388</v>
+      </c>
+      <c r="K31" t="s">
+        <v>417</v>
       </c>
       <c r="L31" t="s">
-        <v>428</v>
+        <v>494</v>
       </c>
       <c r="M31" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3437,16 +3776,16 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="E32" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="F32" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
@@ -3455,22 +3794,19 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>328</v>
+        <v>384</v>
       </c>
       <c r="J32" t="s">
-        <v>333</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>363</v>
+        <v>388</v>
+      </c>
+      <c r="K32" t="s">
+        <v>418</v>
       </c>
       <c r="L32" t="s">
-        <v>429</v>
-      </c>
-      <c r="M32" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3478,16 +3814,16 @@
         <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D33" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E33" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="F33" t="s">
-        <v>301</v>
+        <v>210</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -3496,22 +3832,22 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>331</v>
+        <v>387</v>
       </c>
       <c r="J33" t="s">
-        <v>333</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>364</v>
+        <v>388</v>
+      </c>
+      <c r="K33" t="s">
+        <v>419</v>
       </c>
       <c r="L33" t="s">
-        <v>430</v>
+        <v>496</v>
       </c>
       <c r="M33" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3519,16 +3855,16 @@
         <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D34" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="E34" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="F34" t="s">
-        <v>301</v>
+        <v>210</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
@@ -3537,22 +3873,22 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>331</v>
+        <v>387</v>
       </c>
       <c r="J34" t="s">
-        <v>333</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>364</v>
+        <v>388</v>
+      </c>
+      <c r="K34" t="s">
+        <v>419</v>
       </c>
       <c r="L34" t="s">
-        <v>430</v>
+        <v>496</v>
       </c>
       <c r="M34" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3560,16 +3896,16 @@
         <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D35" t="s">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="E35" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="F35" t="s">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
@@ -3578,22 +3914,22 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>328</v>
+        <v>387</v>
       </c>
       <c r="J35" t="s">
-        <v>333</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>365</v>
+        <v>388</v>
+      </c>
+      <c r="K35" t="s">
+        <v>420</v>
       </c>
       <c r="L35" t="s">
-        <v>431</v>
+        <v>497</v>
       </c>
       <c r="M35" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3601,16 +3937,16 @@
         <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D36" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="E36" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="F36" t="s">
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -3619,22 +3955,22 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
       <c r="J36" t="s">
-        <v>333</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>366</v>
+        <v>388</v>
+      </c>
+      <c r="K36" t="s">
+        <v>421</v>
       </c>
       <c r="L36" t="s">
-        <v>432</v>
+        <v>498</v>
       </c>
       <c r="M36" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3642,16 +3978,16 @@
         <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="D37" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="E37" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="F37" t="s">
-        <v>304</v>
+        <v>353</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
@@ -3660,22 +3996,22 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="J37" t="s">
-        <v>333</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>367</v>
+        <v>388</v>
+      </c>
+      <c r="K37" t="s">
+        <v>422</v>
       </c>
       <c r="L37" t="s">
-        <v>433</v>
+        <v>499</v>
       </c>
       <c r="M37" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3683,16 +4019,16 @@
         <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="E38" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="F38" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
@@ -3701,22 +4037,22 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>330</v>
+        <v>386</v>
       </c>
       <c r="J38" t="s">
-        <v>333</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>368</v>
+        <v>388</v>
+      </c>
+      <c r="K38" t="s">
+        <v>422</v>
       </c>
       <c r="L38" t="s">
-        <v>434</v>
+        <v>499</v>
       </c>
       <c r="M38" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3724,16 +4060,16 @@
         <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D39" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E39" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="F39" t="s">
-        <v>180</v>
+        <v>354</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
@@ -3742,22 +4078,22 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>331</v>
+        <v>383</v>
       </c>
       <c r="J39" t="s">
-        <v>333</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>369</v>
+        <v>388</v>
+      </c>
+      <c r="K39" t="s">
+        <v>423</v>
       </c>
       <c r="L39" t="s">
-        <v>435</v>
+        <v>500</v>
       </c>
       <c r="M39" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3765,16 +4101,16 @@
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="D40" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="E40" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="F40" t="s">
-        <v>182</v>
+        <v>355</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
@@ -3783,22 +4119,22 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="J40" t="s">
-        <v>333</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>370</v>
+        <v>388</v>
+      </c>
+      <c r="K40" t="s">
+        <v>424</v>
       </c>
       <c r="L40" t="s">
-        <v>436</v>
+        <v>501</v>
       </c>
       <c r="M40" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3806,16 +4142,16 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D41" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="E41" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="F41" t="s">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
@@ -3824,22 +4160,22 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>328</v>
+        <v>387</v>
       </c>
       <c r="J41" t="s">
-        <v>333</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>371</v>
+        <v>388</v>
+      </c>
+      <c r="K41" t="s">
+        <v>425</v>
       </c>
       <c r="L41" t="s">
-        <v>437</v>
+        <v>502</v>
       </c>
       <c r="M41" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3847,16 +4183,16 @@
         <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D42" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="E42" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="F42" t="s">
-        <v>307</v>
+        <v>357</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
@@ -3865,22 +4201,22 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>332</v>
+        <v>385</v>
       </c>
       <c r="J42" t="s">
-        <v>333</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>372</v>
+        <v>388</v>
+      </c>
+      <c r="K42" t="s">
+        <v>426</v>
       </c>
       <c r="L42" t="s">
-        <v>438</v>
+        <v>503</v>
       </c>
       <c r="M42" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3888,16 +4224,16 @@
         <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D43" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="E43" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="F43" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
@@ -3906,22 +4242,22 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="J43" t="s">
-        <v>333</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>373</v>
+        <v>388</v>
+      </c>
+      <c r="K43" t="s">
+        <v>427</v>
       </c>
       <c r="L43" t="s">
-        <v>439</v>
+        <v>504</v>
       </c>
       <c r="M43" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3929,16 +4265,16 @@
         <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D44" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="E44" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="F44" t="s">
-        <v>309</v>
+        <v>212</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -3947,22 +4283,22 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>330</v>
+        <v>385</v>
       </c>
       <c r="J44" t="s">
-        <v>334</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>374</v>
+        <v>388</v>
+      </c>
+      <c r="K44" t="s">
+        <v>428</v>
       </c>
       <c r="L44" t="s">
-        <v>440</v>
+        <v>505</v>
       </c>
       <c r="M44" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3970,16 +4306,16 @@
         <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D45" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="E45" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="F45" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
@@ -3988,22 +4324,22 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>328</v>
+        <v>387</v>
       </c>
       <c r="J45" t="s">
-        <v>333</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>375</v>
+        <v>388</v>
+      </c>
+      <c r="K45" t="s">
+        <v>429</v>
       </c>
       <c r="L45" t="s">
-        <v>441</v>
+        <v>506</v>
       </c>
       <c r="M45" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4011,16 +4347,16 @@
         <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D46" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="E46" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="F46" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -4029,22 +4365,22 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
       <c r="J46" t="s">
-        <v>333</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>376</v>
+        <v>388</v>
+      </c>
+      <c r="K46" t="s">
+        <v>430</v>
       </c>
       <c r="L46" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
       <c r="M46" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4052,16 +4388,16 @@
         <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D47" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="E47" t="s">
-        <v>153</v>
+        <v>293</v>
       </c>
       <c r="F47" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
@@ -4070,22 +4406,22 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>330</v>
+        <v>383</v>
       </c>
       <c r="J47" t="s">
-        <v>333</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
+      </c>
+      <c r="K47" t="s">
+        <v>431</v>
       </c>
       <c r="L47" t="s">
-        <v>443</v>
-      </c>
-      <c r="M47">
-        <v>601402930</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>508</v>
+      </c>
+      <c r="M47" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4093,16 +4429,16 @@
         <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D48" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="E48" t="s">
-        <v>153</v>
+        <v>294</v>
       </c>
       <c r="F48" t="s">
-        <v>311</v>
+        <v>359</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -4111,22 +4447,22 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>330</v>
+        <v>387</v>
       </c>
       <c r="J48" t="s">
-        <v>333</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
+      </c>
+      <c r="K48" t="s">
+        <v>432</v>
       </c>
       <c r="L48" t="s">
-        <v>443</v>
-      </c>
-      <c r="M48">
-        <v>601402930</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>509</v>
+      </c>
+      <c r="M48" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4134,16 +4470,16 @@
         <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D49" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="E49" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="F49" t="s">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -4152,22 +4488,22 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>331</v>
+        <v>387</v>
       </c>
       <c r="J49" t="s">
-        <v>333</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>378</v>
+        <v>388</v>
+      </c>
+      <c r="K49" t="s">
+        <v>433</v>
       </c>
       <c r="L49" t="s">
-        <v>444</v>
+        <v>510</v>
       </c>
       <c r="M49" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4175,16 +4511,16 @@
         <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D50" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E50" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="F50" t="s">
-        <v>313</v>
+        <v>185</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
@@ -4193,22 +4529,22 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>331</v>
+        <v>383</v>
       </c>
       <c r="J50" t="s">
-        <v>334</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>379</v>
+        <v>388</v>
+      </c>
+      <c r="K50" t="s">
+        <v>434</v>
       </c>
       <c r="L50" t="s">
-        <v>445</v>
+        <v>511</v>
       </c>
       <c r="M50" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4216,16 +4552,16 @@
         <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D51" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="E51" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="F51" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
@@ -4234,22 +4570,22 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>332</v>
+        <v>385</v>
       </c>
       <c r="J51" t="s">
-        <v>333</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>380</v>
+        <v>389</v>
+      </c>
+      <c r="K51" t="s">
+        <v>435</v>
       </c>
       <c r="L51" t="s">
-        <v>446</v>
+        <v>512</v>
       </c>
       <c r="M51" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4257,16 +4593,16 @@
         <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D52" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="E52" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="F52" t="s">
-        <v>315</v>
+        <v>188</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
@@ -4275,22 +4611,22 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>328</v>
+        <v>383</v>
       </c>
       <c r="J52" t="s">
-        <v>333</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
+      </c>
+      <c r="K52" t="s">
+        <v>436</v>
       </c>
       <c r="L52" t="s">
-        <v>447</v>
+        <v>513</v>
       </c>
       <c r="M52" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4298,16 +4634,16 @@
         <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D53" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="E53" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F53" t="s">
-        <v>158</v>
+        <v>362</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
@@ -4316,22 +4652,22 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>329</v>
+        <v>387</v>
       </c>
       <c r="J53" t="s">
-        <v>333</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>382</v>
+        <v>388</v>
+      </c>
+      <c r="K53" t="s">
+        <v>437</v>
       </c>
       <c r="L53" t="s">
-        <v>448</v>
+        <v>514</v>
       </c>
       <c r="M53" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4339,16 +4675,16 @@
         <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D54" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="E54" t="s">
-        <v>262</v>
+        <v>179</v>
       </c>
       <c r="F54" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
@@ -4357,22 +4693,22 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>330</v>
+        <v>385</v>
       </c>
       <c r="J54" t="s">
-        <v>333</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>383</v>
+        <v>388</v>
+      </c>
+      <c r="K54" t="s">
+        <v>438</v>
       </c>
       <c r="L54" t="s">
-        <v>449</v>
-      </c>
-      <c r="M54" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>515</v>
+      </c>
+      <c r="M54">
+        <v>601402930</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4380,16 +4716,16 @@
         <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D55" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="E55" t="s">
-        <v>263</v>
+        <v>179</v>
       </c>
       <c r="F55" t="s">
-        <v>206</v>
+        <v>363</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
@@ -4398,19 +4734,22 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>329</v>
+        <v>385</v>
       </c>
       <c r="J55" t="s">
-        <v>333</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>384</v>
+        <v>388</v>
+      </c>
+      <c r="K55" t="s">
+        <v>438</v>
       </c>
       <c r="L55" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>515</v>
+      </c>
+      <c r="M55">
+        <v>601402930</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4418,16 +4757,16 @@
         <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D56" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="E56" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="F56" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
@@ -4436,22 +4775,22 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>328</v>
+        <v>386</v>
       </c>
       <c r="J56" t="s">
-        <v>333</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
+      </c>
+      <c r="K56" t="s">
+        <v>439</v>
       </c>
       <c r="L56" t="s">
-        <v>451</v>
+        <v>516</v>
       </c>
       <c r="M56" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4459,16 +4798,16 @@
         <v>67</v>
       </c>
       <c r="C57" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D57" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="E57" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="F57" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
@@ -4477,22 +4816,22 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>331</v>
+        <v>386</v>
       </c>
       <c r="J57" t="s">
-        <v>333</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
+      </c>
+      <c r="K57" t="s">
+        <v>440</v>
       </c>
       <c r="L57" t="s">
-        <v>452</v>
+        <v>517</v>
       </c>
       <c r="M57" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4500,16 +4839,16 @@
         <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D58" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="E58" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="F58" t="s">
-        <v>198</v>
+        <v>366</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
@@ -4518,22 +4857,22 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>329</v>
+        <v>384</v>
       </c>
       <c r="J58" t="s">
-        <v>333</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
+      </c>
+      <c r="K58" t="s">
+        <v>617</v>
       </c>
       <c r="L58" t="s">
-        <v>453</v>
+        <v>518</v>
       </c>
       <c r="M58" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4541,16 +4880,16 @@
         <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D59" t="s">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="E59" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="F59" t="s">
-        <v>319</v>
+        <v>367</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
@@ -4559,22 +4898,22 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>331</v>
+        <v>387</v>
       </c>
       <c r="J59" t="s">
-        <v>334</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>388</v>
+        <v>388</v>
+      </c>
+      <c r="K59" t="s">
+        <v>441</v>
       </c>
       <c r="L59" t="s">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="M59" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4582,16 +4921,16 @@
         <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D60" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="E60" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="F60" t="s">
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
@@ -4600,22 +4939,22 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>330</v>
+        <v>383</v>
       </c>
       <c r="J60" t="s">
-        <v>333</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="K60" t="s">
+        <v>442</v>
       </c>
       <c r="L60" t="s">
-        <v>455</v>
+        <v>520</v>
       </c>
       <c r="M60" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4623,16 +4962,16 @@
         <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D61" t="s">
-        <v>181</v>
+        <v>234</v>
       </c>
       <c r="E61" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="F61" t="s">
-        <v>321</v>
+        <v>184</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
@@ -4641,22 +4980,22 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>329</v>
+        <v>384</v>
       </c>
       <c r="J61" t="s">
-        <v>333</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
+      </c>
+      <c r="K61" t="s">
+        <v>443</v>
       </c>
       <c r="L61" t="s">
-        <v>456</v>
+        <v>521</v>
       </c>
       <c r="M61" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4664,16 +5003,16 @@
         <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="D62" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="E62" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="F62" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
@@ -4682,22 +5021,22 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>332</v>
+        <v>385</v>
       </c>
       <c r="J62" t="s">
-        <v>333</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
+      </c>
+      <c r="K62" t="s">
+        <v>444</v>
       </c>
       <c r="L62" t="s">
-        <v>457</v>
+        <v>522</v>
       </c>
       <c r="M62" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4705,16 +5044,16 @@
         <v>73</v>
       </c>
       <c r="C63" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D63" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="E63" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="F63" t="s">
-        <v>322</v>
+        <v>370</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
@@ -4723,22 +5062,22 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="J63" t="s">
-        <v>333</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
+      </c>
+      <c r="K63" t="s">
+        <v>445</v>
       </c>
       <c r="L63" t="s">
-        <v>458</v>
+        <v>523</v>
       </c>
       <c r="M63" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4746,16 +5085,16 @@
         <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D64" t="s">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="E64" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="F64" t="s">
-        <v>171</v>
+        <v>240</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
@@ -4764,22 +5103,19 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="J64" t="s">
-        <v>333</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
+      </c>
+      <c r="K64" t="s">
+        <v>446</v>
       </c>
       <c r="L64" t="s">
-        <v>459</v>
-      </c>
-      <c r="M64" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4787,16 +5123,16 @@
         <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D65" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="E65" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="F65" t="s">
-        <v>211</v>
+        <v>371</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
@@ -4805,22 +5141,22 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>328</v>
+        <v>383</v>
       </c>
       <c r="J65" t="s">
-        <v>333</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>394</v>
+        <v>388</v>
+      </c>
+      <c r="K65" t="s">
+        <v>447</v>
       </c>
       <c r="L65" t="s">
-        <v>460</v>
+        <v>525</v>
       </c>
       <c r="M65" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4828,16 +5164,16 @@
         <v>76</v>
       </c>
       <c r="C66" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="D66" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="E66" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="F66" t="s">
-        <v>323</v>
+        <v>372</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
@@ -4846,22 +5182,22 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
       <c r="J66" t="s">
-        <v>333</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>395</v>
+        <v>388</v>
+      </c>
+      <c r="K66" t="s">
+        <v>448</v>
       </c>
       <c r="L66" t="s">
-        <v>461</v>
+        <v>526</v>
       </c>
       <c r="M66" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4869,16 +5205,16 @@
         <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="D67" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="E67" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="F67" t="s">
-        <v>324</v>
+        <v>373</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
@@ -4887,22 +5223,22 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="J67" t="s">
-        <v>333</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>396</v>
+        <v>388</v>
+      </c>
+      <c r="K67" t="s">
+        <v>449</v>
       </c>
       <c r="L67" t="s">
-        <v>462</v>
+        <v>527</v>
       </c>
       <c r="M67" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4910,16 +5246,16 @@
         <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D68" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="E68" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="F68" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
@@ -4928,22 +5264,22 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>329</v>
+        <v>384</v>
       </c>
       <c r="J68" t="s">
-        <v>333</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>397</v>
+        <v>388</v>
+      </c>
+      <c r="K68" t="s">
+        <v>450</v>
       </c>
       <c r="L68" t="s">
-        <v>463</v>
+        <v>528</v>
       </c>
       <c r="M68" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4951,16 +5287,16 @@
         <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D69" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="E69" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="F69" t="s">
-        <v>182</v>
+        <v>374</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
@@ -4969,22 +5305,22 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>329</v>
+        <v>386</v>
       </c>
       <c r="J69" t="s">
-        <v>333</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>397</v>
+        <v>389</v>
+      </c>
+      <c r="K69" t="s">
+        <v>451</v>
       </c>
       <c r="L69" t="s">
-        <v>463</v>
+        <v>529</v>
       </c>
       <c r="M69" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4992,16 +5328,16 @@
         <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="D70" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="E70" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="F70" t="s">
-        <v>325</v>
+        <v>375</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
@@ -5010,22 +5346,22 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>328</v>
+        <v>385</v>
       </c>
       <c r="J70" t="s">
-        <v>333</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>398</v>
+        <v>388</v>
+      </c>
+      <c r="K70" t="s">
+        <v>452</v>
       </c>
       <c r="L70" t="s">
-        <v>464</v>
+        <v>530</v>
       </c>
       <c r="M70" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5033,16 +5369,16 @@
         <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D71" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E71" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="F71" t="s">
-        <v>326</v>
+        <v>376</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
@@ -5051,22 +5387,22 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>328</v>
+        <v>384</v>
       </c>
       <c r="J71" t="s">
-        <v>333</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>399</v>
+        <v>388</v>
+      </c>
+      <c r="K71" t="s">
+        <v>453</v>
       </c>
       <c r="L71" t="s">
-        <v>465</v>
+        <v>531</v>
       </c>
       <c r="M71" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5074,113 +5410,573 @@
         <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="D72" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E72" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="F72" t="s">
+        <v>353</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
+        <v>387</v>
+      </c>
+      <c r="J72" t="s">
+        <v>388</v>
+      </c>
+      <c r="K72" t="s">
+        <v>454</v>
+      </c>
+      <c r="L72" t="s">
+        <v>532</v>
+      </c>
+      <c r="M72" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" t="s">
+        <v>167</v>
+      </c>
+      <c r="D73" t="s">
+        <v>242</v>
+      </c>
+      <c r="E73" t="s">
+        <v>317</v>
+      </c>
+      <c r="F73" t="s">
+        <v>361</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>387</v>
+      </c>
+      <c r="J73" t="s">
+        <v>388</v>
+      </c>
+      <c r="K73" t="s">
+        <v>455</v>
+      </c>
+      <c r="L73" t="s">
+        <v>533</v>
+      </c>
+      <c r="M73" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" t="s">
+        <v>168</v>
+      </c>
+      <c r="D74" t="s">
+        <v>243</v>
+      </c>
+      <c r="E74" t="s">
+        <v>318</v>
+      </c>
+      <c r="F74" t="s">
+        <v>377</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>386</v>
+      </c>
+      <c r="J74" t="s">
+        <v>388</v>
+      </c>
+      <c r="K74" t="s">
+        <v>456</v>
+      </c>
+      <c r="L74" t="s">
+        <v>534</v>
+      </c>
+      <c r="M74" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" t="s">
+        <v>169</v>
+      </c>
+      <c r="D75" t="s">
+        <v>244</v>
+      </c>
+      <c r="E75" t="s">
+        <v>319</v>
+      </c>
+      <c r="F75" t="s">
+        <v>378</v>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
+        <v>387</v>
+      </c>
+      <c r="J75" t="s">
+        <v>388</v>
+      </c>
+      <c r="K75" t="s">
+        <v>457</v>
+      </c>
+      <c r="L75" t="s">
+        <v>535</v>
+      </c>
+      <c r="M75" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" t="s">
+        <v>170</v>
+      </c>
+      <c r="D76" t="s">
+        <v>208</v>
+      </c>
+      <c r="E76" t="s">
+        <v>320</v>
+      </c>
+      <c r="F76" t="s">
+        <v>199</v>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" t="s">
+        <v>385</v>
+      </c>
+      <c r="J76" t="s">
+        <v>388</v>
+      </c>
+      <c r="K76" t="s">
+        <v>458</v>
+      </c>
+      <c r="L76" t="s">
+        <v>536</v>
+      </c>
+      <c r="M76" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" t="s">
+        <v>171</v>
+      </c>
+      <c r="D77" t="s">
+        <v>245</v>
+      </c>
+      <c r="E77" t="s">
+        <v>321</v>
+      </c>
+      <c r="F77" t="s">
+        <v>247</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="b">
+        <v>1</v>
+      </c>
+      <c r="I77" t="s">
+        <v>383</v>
+      </c>
+      <c r="J77" t="s">
+        <v>388</v>
+      </c>
+      <c r="K77" t="s">
+        <v>459</v>
+      </c>
+      <c r="L77" t="s">
+        <v>537</v>
+      </c>
+      <c r="M77" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" t="s">
+        <v>172</v>
+      </c>
+      <c r="D78" t="s">
+        <v>246</v>
+      </c>
+      <c r="E78" t="s">
+        <v>322</v>
+      </c>
+      <c r="F78" t="s">
+        <v>379</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="s">
+        <v>384</v>
+      </c>
+      <c r="J78" t="s">
+        <v>388</v>
+      </c>
+      <c r="K78" t="s">
+        <v>460</v>
+      </c>
+      <c r="L78" t="s">
+        <v>538</v>
+      </c>
+      <c r="M78" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" t="s">
+        <v>173</v>
+      </c>
+      <c r="D79" t="s">
+        <v>247</v>
+      </c>
+      <c r="E79" t="s">
+        <v>323</v>
+      </c>
+      <c r="F79" t="s">
+        <v>377</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="b">
+        <v>1</v>
+      </c>
+      <c r="I79" t="s">
+        <v>387</v>
+      </c>
+      <c r="J79" t="s">
+        <v>388</v>
+      </c>
+      <c r="K79" t="s">
+        <v>461</v>
+      </c>
+      <c r="L79" t="s">
+        <v>539</v>
+      </c>
+      <c r="M79" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80" t="s">
+        <v>174</v>
+      </c>
+      <c r="D80" t="s">
+        <v>248</v>
+      </c>
+      <c r="E80" t="s">
+        <v>324</v>
+      </c>
+      <c r="F80" t="s">
+        <v>212</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" t="s">
+        <v>384</v>
+      </c>
+      <c r="J80" t="s">
+        <v>388</v>
+      </c>
+      <c r="K80" t="s">
+        <v>462</v>
+      </c>
+      <c r="L80" t="s">
+        <v>540</v>
+      </c>
+      <c r="M80" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" t="s">
+        <v>175</v>
+      </c>
+      <c r="D81" t="s">
+        <v>249</v>
+      </c>
+      <c r="E81" t="s">
+        <v>324</v>
+      </c>
+      <c r="F81" t="s">
+        <v>212</v>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="s">
+        <v>384</v>
+      </c>
+      <c r="J81" t="s">
+        <v>388</v>
+      </c>
+      <c r="K81" t="s">
+        <v>462</v>
+      </c>
+      <c r="L81" t="s">
+        <v>540</v>
+      </c>
+      <c r="M81" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" t="s">
+        <v>176</v>
+      </c>
+      <c r="D82" t="s">
+        <v>250</v>
+      </c>
+      <c r="E82" t="s">
+        <v>325</v>
+      </c>
+      <c r="F82" t="s">
+        <v>380</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
+        <v>383</v>
+      </c>
+      <c r="J82" t="s">
+        <v>388</v>
+      </c>
+      <c r="K82" t="s">
+        <v>463</v>
+      </c>
+      <c r="L82" t="s">
+        <v>541</v>
+      </c>
+      <c r="M82" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>93</v>
+      </c>
+      <c r="C83" t="s">
+        <v>177</v>
+      </c>
+      <c r="D83" t="s">
+        <v>251</v>
+      </c>
+      <c r="E83" t="s">
+        <v>326</v>
+      </c>
+      <c r="F83" t="s">
+        <v>335</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
+        <v>387</v>
+      </c>
+      <c r="J83" t="s">
+        <v>388</v>
+      </c>
+      <c r="K83" t="s">
+        <v>464</v>
+      </c>
+      <c r="L83" t="s">
+        <v>542</v>
+      </c>
+      <c r="M83" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" t="s">
+        <v>178</v>
+      </c>
+      <c r="D84" t="s">
+        <v>240</v>
+      </c>
+      <c r="E84" t="s">
         <v>327</v>
       </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="b">
-        <v>1</v>
-      </c>
-      <c r="I72" t="s">
-        <v>329</v>
-      </c>
-      <c r="J72" t="s">
-        <v>333</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="L72" t="s">
+      <c r="F84" t="s">
+        <v>381</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
+        <v>383</v>
+      </c>
+      <c r="J84" t="s">
+        <v>388</v>
+      </c>
+      <c r="K84" t="s">
+        <v>465</v>
+      </c>
+      <c r="L84" t="s">
+        <v>543</v>
+      </c>
+      <c r="M84" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85" t="s">
+        <v>179</v>
+      </c>
+      <c r="D85" t="s">
+        <v>222</v>
+      </c>
+      <c r="E85" t="s">
+        <v>328</v>
+      </c>
+      <c r="F85" t="s">
+        <v>382</v>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="s">
+        <v>384</v>
+      </c>
+      <c r="J85" t="s">
+        <v>388</v>
+      </c>
+      <c r="K85" t="s">
         <v>466</v>
       </c>
-      <c r="M72" t="s">
-        <v>524</v>
+      <c r="L85" t="s">
+        <v>544</v>
+      </c>
+      <c r="M85" t="s">
+        <v>613</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="K5" r:id="rId4"/>
-    <hyperlink ref="K6" r:id="rId5"/>
-    <hyperlink ref="K7" r:id="rId6"/>
-    <hyperlink ref="K8" r:id="rId7"/>
-    <hyperlink ref="K9" r:id="rId8"/>
-    <hyperlink ref="K10" r:id="rId9"/>
-    <hyperlink ref="K11" r:id="rId10"/>
-    <hyperlink ref="K12" r:id="rId11"/>
-    <hyperlink ref="K13" r:id="rId12"/>
-    <hyperlink ref="K14" r:id="rId13"/>
-    <hyperlink ref="K15" r:id="rId14"/>
-    <hyperlink ref="K16" r:id="rId15"/>
-    <hyperlink ref="K17" r:id="rId16"/>
-    <hyperlink ref="K18" r:id="rId17"/>
-    <hyperlink ref="K19" r:id="rId18"/>
-    <hyperlink ref="K20" r:id="rId19"/>
-    <hyperlink ref="K21" r:id="rId20"/>
-    <hyperlink ref="K22" r:id="rId21"/>
-    <hyperlink ref="K23" r:id="rId22"/>
-    <hyperlink ref="K24" r:id="rId23"/>
-    <hyperlink ref="K25" r:id="rId24"/>
-    <hyperlink ref="K26" r:id="rId25"/>
-    <hyperlink ref="K27" r:id="rId26"/>
-    <hyperlink ref="K28" r:id="rId27"/>
-    <hyperlink ref="K29" r:id="rId28"/>
-    <hyperlink ref="K30" r:id="rId29"/>
-    <hyperlink ref="K31" r:id="rId30"/>
-    <hyperlink ref="K32" r:id="rId31"/>
-    <hyperlink ref="K33" r:id="rId32"/>
-    <hyperlink ref="K34" r:id="rId33"/>
-    <hyperlink ref="K35" r:id="rId34"/>
-    <hyperlink ref="K36" r:id="rId35"/>
-    <hyperlink ref="K37" r:id="rId36"/>
-    <hyperlink ref="K38" r:id="rId37"/>
-    <hyperlink ref="K39" r:id="rId38"/>
-    <hyperlink ref="K40" r:id="rId39"/>
-    <hyperlink ref="K41" r:id="rId40"/>
-    <hyperlink ref="K42" r:id="rId41"/>
-    <hyperlink ref="K43" r:id="rId42"/>
-    <hyperlink ref="K44" r:id="rId43"/>
-    <hyperlink ref="K45" r:id="rId44"/>
-    <hyperlink ref="K46" r:id="rId45"/>
-    <hyperlink ref="K47" r:id="rId46"/>
-    <hyperlink ref="K48" r:id="rId47"/>
-    <hyperlink ref="K49" r:id="rId48"/>
-    <hyperlink ref="K50" r:id="rId49"/>
-    <hyperlink ref="K51" r:id="rId50"/>
-    <hyperlink ref="K52" r:id="rId51"/>
-    <hyperlink ref="K53" r:id="rId52"/>
-    <hyperlink ref="K54" r:id="rId53"/>
-    <hyperlink ref="K55" r:id="rId54"/>
-    <hyperlink ref="K56" r:id="rId55"/>
-    <hyperlink ref="K57" r:id="rId56"/>
-    <hyperlink ref="K58" r:id="rId57"/>
-    <hyperlink ref="K59" r:id="rId58"/>
-    <hyperlink ref="K60" r:id="rId59"/>
-    <hyperlink ref="K61" r:id="rId60"/>
-    <hyperlink ref="K62" r:id="rId61"/>
-    <hyperlink ref="K63" r:id="rId62"/>
-    <hyperlink ref="K64" r:id="rId63"/>
-    <hyperlink ref="K65" r:id="rId64"/>
-    <hyperlink ref="K66" r:id="rId65"/>
-    <hyperlink ref="K67" r:id="rId66"/>
-    <hyperlink ref="K68" r:id="rId67"/>
-    <hyperlink ref="K69" r:id="rId68"/>
-    <hyperlink ref="K70" r:id="rId69"/>
-    <hyperlink ref="K71" r:id="rId70"/>
-    <hyperlink ref="K72" r:id="rId71"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>